--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F74CE-7E6D-8646-817A-0E57C4D8D5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1F390-F06B-C64D-BE79-20CDA62E0733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorisation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Countries">Orderbook!$F$2:$F$1048576</definedName>
+    <definedName name="Industries">Orderbook!$E$2:$E$1048576</definedName>
+    <definedName name="Sectors">Orderbook!$D$2:$D$1048576</definedName>
+    <definedName name="Types">Orderbook!$C$2:$C$1048576</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="577">
   <si>
     <t>Country</t>
   </si>
@@ -63,12 +70,6 @@
     <t>Communication Services</t>
   </si>
   <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
@@ -87,24 +88,9 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>Interactive Media &amp; Services</t>
-  </si>
-  <si>
-    <t>Internet &amp; Direct Marketing Retail</t>
-  </si>
-  <si>
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Technology Hardware, Storage &amp; Peripherals</t>
-  </si>
-  <si>
-    <t>Auto Parts &amp; Equipment</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>ASML</t>
   </si>
   <si>
@@ -117,21 +103,12 @@
     <t>BABA</t>
   </si>
   <si>
-    <t>Asia</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
     <t>DGX</t>
   </si>
   <si>
-    <t>Health Care</t>
-  </si>
-  <si>
-    <t>Health Care Services</t>
-  </si>
-  <si>
     <t>YUM</t>
   </si>
   <si>
@@ -175,6 +152,1635 @@
   </si>
   <si>
     <t>Investment</t>
+  </si>
+  <si>
+    <t>Sectors</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>Advertising Agencies</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>Aerospace Defense - Major Diversified</t>
+  </si>
+  <si>
+    <t>Aerospace Defense Products &amp; Services</t>
+  </si>
+  <si>
+    <t>Agricultural Chemicals</t>
+  </si>
+  <si>
+    <t>Agricultural Inputs</t>
+  </si>
+  <si>
+    <t>Air Delivery &amp; Freight Services</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Airports &amp; Air Services</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Apparel Manufacturing</t>
+  </si>
+  <si>
+    <t>Apparel Retail</t>
+  </si>
+  <si>
+    <t>Apparel Stores</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+  </si>
+  <si>
+    <t>Auto &amp; Truck Dealerships</t>
+  </si>
+  <si>
+    <t>Auto Dealerships</t>
+  </si>
+  <si>
+    <t>Auto Manufacturers</t>
+  </si>
+  <si>
+    <t>Auto Manufacturers - Major</t>
+  </si>
+  <si>
+    <t>Auto Parts</t>
+  </si>
+  <si>
+    <t>Banks - Diversified</t>
+  </si>
+  <si>
+    <t>Banks - Regional</t>
+  </si>
+  <si>
+    <t>Beverages - Brewers</t>
+  </si>
+  <si>
+    <t>Beverages - Non-Alcoholic</t>
+  </si>
+  <si>
+    <t>Beverages - Soft Drinks</t>
+  </si>
+  <si>
+    <t>Beverages - Wineries &amp; Distilleries</t>
+  </si>
+  <si>
+    <t>Beverages - Wineries &amp; Distillers</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
+  </si>
+  <si>
+    <t>Broadcasting - TV</t>
+  </si>
+  <si>
+    <t>Building Materials</t>
+  </si>
+  <si>
+    <t>Building Products &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Business Equipment</t>
+  </si>
+  <si>
+    <t>Business Equipment &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Business Services</t>
+  </si>
+  <si>
+    <t>Business Software &amp; Services</t>
+  </si>
+  <si>
+    <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Chemicals - Major Diversified</t>
+  </si>
+  <si>
+    <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>Closed-End Fund - Equity</t>
+  </si>
+  <si>
+    <t>Coking Coal</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>Computer Based Systems</t>
+  </si>
+  <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Confectioners</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
+  </si>
+  <si>
+    <t>Consulting Services</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Credit Services</t>
+  </si>
+  <si>
+    <t>Department Stores</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Discount Stores</t>
+  </si>
+  <si>
+    <t>Discount, Variety Stores</t>
+  </si>
+  <si>
+    <t>Diversified Computer Systems</t>
+  </si>
+  <si>
+    <t>Diversified Electronics</t>
+  </si>
+  <si>
+    <t>Diversified Investments</t>
+  </si>
+  <si>
+    <t>Diversified Machinery</t>
+  </si>
+  <si>
+    <t>Diversified Utilities</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - Major</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - Other</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - Specialty &amp; Generic</t>
+  </si>
+  <si>
+    <t>Drugs - Generic</t>
+  </si>
+  <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
+    <t>Electric Utilities</t>
+  </si>
+  <si>
+    <t>Electrical Equipment &amp; Parts</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Electronic Equipment</t>
+  </si>
+  <si>
+    <t>Electronic Gaming &amp; Multimedia</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Computer Distribution</t>
+  </si>
+  <si>
+    <t>Electronics Wholesale</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Construction</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Entertainment - Diversified</t>
+  </si>
+  <si>
+    <t>Farm &amp; Construction Machinery</t>
+  </si>
+  <si>
+    <t>Farm &amp; Heavy Construction Machinery</t>
+  </si>
+  <si>
+    <t>Farm Products</t>
+  </si>
+  <si>
+    <t>Financial Conglomerates</t>
+  </si>
+  <si>
+    <t>Financial Data &amp; Stock Exchanges</t>
+  </si>
+  <si>
+    <t>Food - Major Diversified</t>
+  </si>
+  <si>
+    <t>Food Distribution</t>
+  </si>
+  <si>
+    <t>Food Wholesale</t>
+  </si>
+  <si>
+    <t>Footwear &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Furnishings, Fixtures &amp; Appliances</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Gaming Activities</t>
+  </si>
+  <si>
+    <t>General Building Materials</t>
+  </si>
+  <si>
+    <t>General Contractors</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Grocery Stores</t>
+  </si>
+  <si>
+    <t>Health Care Plans</t>
+  </si>
+  <si>
+    <t>Health Information Services</t>
+  </si>
+  <si>
+    <t>Healthcare Information Services</t>
+  </si>
+  <si>
+    <t>Healthcare Plans</t>
+  </si>
+  <si>
+    <t>Heavy Construction</t>
+  </si>
+  <si>
+    <t>Home Furnishings &amp; Fixtures</t>
+  </si>
+  <si>
+    <t>Home Improvement Retail</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Household &amp; Personal Products</t>
+  </si>
+  <si>
+    <t>Independent Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Industrial Distribution</t>
+  </si>
+  <si>
+    <t>Industrial Equipment Wholesale</t>
+  </si>
+  <si>
+    <t>Industrial Metals &amp; Minerals</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Infrastructure Operations</t>
+  </si>
+  <si>
+    <t>Insurance - Diversified</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
+    <t>Insurance - Property &amp; Casualty</t>
+  </si>
+  <si>
+    <t>Insurance - Reinsurance</t>
+  </si>
+  <si>
+    <t>Insurance - Specialty</t>
+  </si>
+  <si>
+    <t>Insurance Brokers</t>
+  </si>
+  <si>
+    <t>Integrated Freight &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Internet Content &amp; Information</t>
+  </si>
+  <si>
+    <t>Internet Information Providers</t>
+  </si>
+  <si>
+    <t>Internet Retail</t>
+  </si>
+  <si>
+    <t>Internet Service Providers</t>
+  </si>
+  <si>
+    <t>Internet Software &amp; Services</t>
+  </si>
+  <si>
+    <t>Investment Brokerage - National</t>
+  </si>
+  <si>
+    <t>Jewelry Stores</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Life Insurance</t>
+  </si>
+  <si>
+    <t>Lodging</t>
+  </si>
+  <si>
+    <t>Long Distance Carriers</t>
+  </si>
+  <si>
+    <t>Lumber &amp; Wood Production</t>
+  </si>
+  <si>
+    <t>Lumber, Wood Production</t>
+  </si>
+  <si>
+    <t>Luxury Goods</t>
+  </si>
+  <si>
+    <t>Machine Tools &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Major Airlines</t>
+  </si>
+  <si>
+    <t>Major Integrated Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Marine Shipping</t>
+  </si>
+  <si>
+    <t>Marketing Services</t>
+  </si>
+  <si>
+    <t>Medical Appliances &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Medical Distribution</t>
+  </si>
+  <si>
+    <t>Medical Instruments &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Medical Laboratories &amp; Research</t>
+  </si>
+  <si>
+    <t>Metal Fabrication</t>
+  </si>
+  <si>
+    <t>Money Center Banks</t>
+  </si>
+  <si>
+    <t>Mortgage Finance</t>
+  </si>
+  <si>
+    <t>Mortgage Investment</t>
+  </si>
+  <si>
+    <t>Multimedia &amp; Graphics Software</t>
+  </si>
+  <si>
+    <t>Networking &amp; Communication Devices</t>
+  </si>
+  <si>
+    <t>Nonmetallic Mineral Mining</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Drilling</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Drilling &amp; Exploration</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas E&amp;P</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Equipment &amp; Services</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Integrated</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Midstream</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Pipelines</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Refining &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Other Industrial Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Other Precious Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>Packaged Foods</t>
+  </si>
+  <si>
+    <t>Packaging &amp; Containers</t>
+  </si>
+  <si>
+    <t>Paper &amp; Paper Products</t>
+  </si>
+  <si>
+    <t>Personal Products</t>
+  </si>
+  <si>
+    <t>Personal Services</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Retailers</t>
+  </si>
+  <si>
+    <t>Pollution &amp; Treatment Controls</t>
+  </si>
+  <si>
+    <t>Printed Circuit Boards</t>
+  </si>
+  <si>
+    <t>Processed &amp; Packaged Goods</t>
+  </si>
+  <si>
+    <t>Property &amp; Casualty Insurance</t>
+  </si>
+  <si>
+    <t>Property Management</t>
+  </si>
+  <si>
+    <t>Publishing</t>
+  </si>
+  <si>
+    <t>Publishing - Newspapers</t>
+  </si>
+  <si>
+    <t>REIT - Diversified</t>
+  </si>
+  <si>
+    <t>REIT - Healthcare Facilities</t>
+  </si>
+  <si>
+    <t>REIT - Hotel &amp; Motel</t>
+  </si>
+  <si>
+    <t>REIT - Industrial</t>
+  </si>
+  <si>
+    <t>REIT - Mortgage</t>
+  </si>
+  <si>
+    <t>REIT - Office</t>
+  </si>
+  <si>
+    <t>REIT - Residential</t>
+  </si>
+  <si>
+    <t>REIT - Retail</t>
+  </si>
+  <si>
+    <t>REIT - Specialty</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>Real Estate - Development</t>
+  </si>
+  <si>
+    <t>Real Estate - Diversified</t>
+  </si>
+  <si>
+    <t>Real Estate Development</t>
+  </si>
+  <si>
+    <t>Real Estate Services</t>
+  </si>
+  <si>
+    <t>Recreational Goods, Other</t>
+  </si>
+  <si>
+    <t>Recreational Vehicles</t>
+  </si>
+  <si>
+    <t>Regional - Mid-Atlantic Banks</t>
+  </si>
+  <si>
+    <t>Rental &amp; Leasing Services</t>
+  </si>
+  <si>
+    <t>Research Services</t>
+  </si>
+  <si>
+    <t>Residential Construction</t>
+  </si>
+  <si>
+    <t>Resorts &amp; Casinos</t>
+  </si>
+  <si>
+    <t>Rubber &amp; Plastics</t>
+  </si>
+  <si>
+    <t>Scientific &amp; Technical Instruments</t>
+  </si>
+  <si>
+    <t>Security &amp; Protection Services</t>
+  </si>
+  <si>
+    <t>Security Software &amp; Services</t>
+  </si>
+  <si>
+    <t>Semiconductor - Broad Line</t>
+  </si>
+  <si>
+    <t>Semiconductor Equipment &amp; Materials</t>
+  </si>
+  <si>
+    <t>Semiconductor- Memory Chips</t>
+  </si>
+  <si>
+    <t>Shell Companies</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Software - Infrastructure</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Specialized Health Services</t>
+  </si>
+  <si>
+    <t>Specialty Business Services</t>
+  </si>
+  <si>
+    <t>Specialty Chemicals</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>Specialty Retail</t>
+  </si>
+  <si>
+    <t>Specialty Retail, Other</t>
+  </si>
+  <si>
+    <t>Staffing &amp; Employment Services</t>
+  </si>
+  <si>
+    <t>Staffing &amp; Outsourcing Services</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Steel &amp; Iron</t>
+  </si>
+  <si>
+    <t>Technical &amp; System Software</t>
+  </si>
+  <si>
+    <t>Telecom Services</t>
+  </si>
+  <si>
+    <t>Textile - Apparel Clothing</t>
+  </si>
+  <si>
+    <t>Textile - Apparel Footwear &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Textile Industrial</t>
+  </si>
+  <si>
+    <t>Textile Manufacturing</t>
+  </si>
+  <si>
+    <t>Thermal Coal</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Tobacco Products, Other</t>
+  </si>
+  <si>
+    <t>Tools &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Travel Services</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>Trucks &amp; Other Vehicles</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
+    <t>Utilities - Independent Power Producers</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated Electric</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated Gas</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated Water</t>
+  </si>
+  <si>
+    <t>Utilities - Renewable</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>Water Utilities</t>
+  </si>
+  <si>
+    <t>Wireless Communications</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Consumer Goods</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrial Goods</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>BRX</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>BYN</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CAX</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>CUP</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>CZX</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>DKX</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>ERN</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>HRX</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>HUX</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>ISX</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>KMF</t>
+  </si>
+  <si>
+    <t>KPW</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LYD</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>MRU</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>MWK</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>MXV</t>
+  </si>
+  <si>
+    <t>MXX</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>MYX</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PLX</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>RUX</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>SZL</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>THX</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>VES</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>VUV</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t>XCU</t>
+  </si>
+  <si>
+    <t>XDR</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>ZAC</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>ZMW</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>Public Equity</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>Derivative</t>
+  </si>
+  <si>
+    <t>Forex</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>This is based on the Yahoo Finance's sectors, industries, countries and currencies.</t>
+  </si>
+  <si>
+    <t>See this page for the source used.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +1791,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +1812,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,11 +1846,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -236,8 +1859,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -554,7 +2180,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,40 +2196,40 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -614,19 +2240,19 @@
         <v>40301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5">
         <v>60850</v>
@@ -645,7 +2271,7 @@
         <v>60850</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>4</v>
@@ -656,16 +2282,16 @@
         <v>40301</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -687,7 +2313,7 @@
         <v>525.6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>4</v>
@@ -699,16 +2325,16 @@
         <v>40365</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -730,7 +2356,7 @@
         <v>547.29999999999995</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>4</v>
@@ -742,16 +2368,16 @@
         <v>40761</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -773,7 +2399,7 @@
         <v>36.83</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>4</v>
@@ -785,16 +2411,16 @@
         <v>40889</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -816,7 +2442,7 @@
         <v>90.1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>4</v>
@@ -828,19 +2454,19 @@
         <v>40942</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G7" s="5">
         <v>59.17</v>
@@ -859,7 +2485,7 @@
         <v>414.19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>4</v>
@@ -871,19 +2497,19 @@
         <v>41033</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="G8" s="5">
         <v>27.95</v>
@@ -902,7 +2528,7 @@
         <v>83.85</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -913,19 +2539,19 @@
         <v>41125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="G9" s="5">
         <v>14.24</v>
@@ -944,7 +2570,7 @@
         <v>712</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -955,16 +2581,16 @@
         <v>41194</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -986,7 +2612,7 @@
         <v>370.34000000000003</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -997,16 +2623,16 @@
         <v>41308</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -1028,7 +2654,7 @@
         <v>173.92</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>4</v>
@@ -1039,16 +2665,16 @@
         <v>41337</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -1070,7 +2696,7 @@
         <v>310.75</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -1081,16 +2707,16 @@
         <v>41494</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -1112,7 +2738,7 @@
         <v>293.74</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>4</v>
@@ -1123,16 +2749,16 @@
         <v>41556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1154,7 +2780,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1165,16 +2791,16 @@
         <v>41673</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1196,7 +2822,7 @@
         <v>243.65</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1207,19 +2833,19 @@
         <v>41675</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G16" s="5">
         <v>85.16</v>
@@ -1238,7 +2864,7 @@
         <v>252.48</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>4</v>
@@ -1249,19 +2875,19 @@
         <v>41981</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="G17" s="5">
         <v>48.86</v>
@@ -1280,7 +2906,7 @@
         <v>486.6</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
@@ -1291,19 +2917,19 @@
         <v>42037</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="G18" s="5">
         <v>90.13</v>
@@ -1322,7 +2948,7 @@
         <v>2702.8999999999996</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1333,19 +2959,19 @@
         <v>42071</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="G19" s="5">
         <v>23.45</v>
@@ -1364,7 +2990,7 @@
         <v>463</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>4</v>
@@ -1375,16 +3001,16 @@
         <v>42343</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1406,7 +3032,7 @@
         <v>1443.43</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1417,16 +3043,16 @@
         <v>42406</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1448,7 +3074,7 @@
         <v>92.98</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1459,16 +3085,16 @@
         <v>42620</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1490,7 +3116,7 @@
         <v>1615.98</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1501,16 +3127,16 @@
         <v>42745</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1532,7 +3158,7 @@
         <v>1591.8</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>4</v>
@@ -1543,16 +3169,16 @@
         <v>42865</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1574,7 +3200,7 @@
         <v>383.2</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1585,16 +3211,16 @@
         <v>43077</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -1616,7 +3242,7 @@
         <v>848.2</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>4</v>
@@ -1627,19 +3253,19 @@
         <v>43286</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G26" s="5">
         <v>195.99</v>
@@ -1658,7 +3284,7 @@
         <v>977.95</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
@@ -1669,19 +3295,19 @@
         <v>43346</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="G27" s="5">
         <v>79.599999999999994</v>
@@ -1700,7 +3326,7 @@
         <v>236.79999999999998</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
@@ -1711,19 +3337,19 @@
         <v>43589</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="G28" s="5">
         <v>188.24</v>
@@ -1742,7 +3368,7 @@
         <v>940.2</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>4</v>
@@ -1753,19 +3379,19 @@
         <v>43717</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="G29" s="5">
         <v>43.85</v>
@@ -1784,7 +3410,7 @@
         <v>125.55000000000001</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
@@ -1795,16 +3421,16 @@
         <v>43809</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -1826,7 +3452,7 @@
         <v>838.52</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>4</v>
@@ -1837,16 +3463,16 @@
         <v>43864</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
@@ -1868,7 +3494,7 @@
         <v>1054.0999999999999</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>4</v>
@@ -1879,16 +3505,16 @@
         <v>43898</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1910,7 +3536,7 @@
         <v>3637.37</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1921,16 +3547,16 @@
         <v>43991</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1952,7 +3578,7 @@
         <v>5001.72</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
@@ -1963,16 +3589,16 @@
         <v>44177</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
@@ -1994,7 +3620,7 @@
         <v>477.12</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>4</v>
@@ -2005,16 +3631,16 @@
         <v>44203</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -2036,7 +3662,7 @@
         <v>2886</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
@@ -2047,19 +3673,19 @@
         <v>44322</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="G36" s="5">
         <v>644.34</v>
@@ -2078,7 +3704,7 @@
         <v>19320.2</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>4</v>
@@ -2089,19 +3715,19 @@
         <v>44558</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="G37" s="5">
         <v>166.42</v>
@@ -2120,7 +3746,7 @@
         <v>2143.46</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>4</v>
@@ -2131,19 +3757,19 @@
         <v>44594</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="G38" s="5">
         <v>122.88</v>
@@ -2162,7 +3788,7 @@
         <v>3686.3999999999996</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>4</v>
@@ -2173,19 +3799,19 @@
         <v>44624</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="G39" s="5">
         <v>105.06</v>
@@ -2204,7 +3830,7 @@
         <v>3151.8</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>4</v>
@@ -2215,16 +3841,16 @@
         <v>44663</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
@@ -2246,7 +3872,7 @@
         <v>1342.7</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>4</v>
@@ -2257,16 +3883,16 @@
         <v>44683</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -2288,7 +3914,7 @@
         <v>1233.3600000000001</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2298,8 +3924,2206 @@
       <c r="G44" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
+      <formula1>"Buy,Sell,Deposit,Withdrawal"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C11C8347-3344-3647-9A10-14D92FE90B9C}">
+          <x14:formula1>
+            <xm:f>Categorisation!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEF68219-5D0D-B745-BDFA-47099813E79C}">
+          <x14:formula1>
+            <xm:f>Categorisation!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97F90721-221C-DE45-8F8B-D1A75F34D523}">
+          <x14:formula1>
+            <xm:f>Categorisation!$C$2:$C$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F54F842A-6630-074C-8ECA-2CC09092A0BF}">
+          <x14:formula1>
+            <xm:f>Categorisation!$D$2:$D$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AC691FA-6126-5D4F-8FA5-46513B4FA87B}">
+          <x14:formula1>
+            <xm:f>Categorisation!$E$2:$E$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305EB1E-3E35-DB44-B616-B072F9A14F6B}">
+  <dimension ref="A1:G238"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>313</v>
+      </c>
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>339</v>
+      </c>
+      <c r="E56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>341</v>
+      </c>
+      <c r="E58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>346</v>
+      </c>
+      <c r="E63" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>347</v>
+      </c>
+      <c r="E64" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>350</v>
+      </c>
+      <c r="E67" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>353</v>
+      </c>
+      <c r="E70" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>354</v>
+      </c>
+      <c r="E71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" t="s">
+        <v>357</v>
+      </c>
+      <c r="E74" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>360</v>
+      </c>
+      <c r="E77" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>361</v>
+      </c>
+      <c r="E78" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>365</v>
+      </c>
+      <c r="E82" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>366</v>
+      </c>
+      <c r="E83" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" t="s">
+        <v>368</v>
+      </c>
+      <c r="E85" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>369</v>
+      </c>
+      <c r="E86" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>370</v>
+      </c>
+      <c r="E87" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" t="s">
+        <v>379</v>
+      </c>
+      <c r="E96" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" t="s">
+        <v>382</v>
+      </c>
+      <c r="E99" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" t="s">
+        <v>383</v>
+      </c>
+      <c r="E100" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" t="s">
+        <v>384</v>
+      </c>
+      <c r="E101" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" t="s">
+        <v>385</v>
+      </c>
+      <c r="E102" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>387</v>
+      </c>
+      <c r="E104" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" t="s">
+        <v>388</v>
+      </c>
+      <c r="E105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" t="s">
+        <v>389</v>
+      </c>
+      <c r="E106" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" t="s">
+        <v>391</v>
+      </c>
+      <c r="E109" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" t="s">
+        <v>392</v>
+      </c>
+      <c r="E110" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>156</v>
+      </c>
+      <c r="E121" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E129" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>167</v>
+      </c>
+      <c r="E132" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+      <c r="E133" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>169</v>
+      </c>
+      <c r="E134" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>171</v>
+      </c>
+      <c r="E136" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>173</v>
+      </c>
+      <c r="E138" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>179</v>
+      </c>
+      <c r="E144" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>180</v>
+      </c>
+      <c r="E145" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>182</v>
+      </c>
+      <c r="E147" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>184</v>
+      </c>
+      <c r="E149" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>186</v>
+      </c>
+      <c r="E151" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>187</v>
+      </c>
+      <c r="E152" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>189</v>
+      </c>
+      <c r="E154" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>190</v>
+      </c>
+      <c r="E155" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>191</v>
+      </c>
+      <c r="E156" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>192</v>
+      </c>
+      <c r="E157" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>193</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>194</v>
+      </c>
+      <c r="E159" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>195</v>
+      </c>
+      <c r="E160" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>196</v>
+      </c>
+      <c r="E161" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>197</v>
+      </c>
+      <c r="E162" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>198</v>
+      </c>
+      <c r="E163" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>199</v>
+      </c>
+      <c r="E164" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>200</v>
+      </c>
+      <c r="E165" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>201</v>
+      </c>
+      <c r="E166" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>202</v>
+      </c>
+      <c r="E167" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>203</v>
+      </c>
+      <c r="E168" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>205</v>
+      </c>
+      <c r="E170" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>206</v>
+      </c>
+      <c r="E171" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>207</v>
+      </c>
+      <c r="E172" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>208</v>
+      </c>
+      <c r="E173" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{CF104A1B-7EBD-B944-AB33-261BF64E2E0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1F390-F06B-C64D-BE79-20CDA62E0733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A9E5A8-633D-7143-84BA-B00C42A58655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="584">
   <si>
     <t>Country</t>
   </si>
@@ -1781,6 +1781,27 @@
   </si>
   <si>
     <t>See this page for the source used.</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Middle East</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1812,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1828,6 +1849,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1851,7 +1886,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1861,6 +1896,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2177,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D6F62-AF81-9E4D-96B0-03BD76BF955E}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2189,53 +2226,57 @@
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>40301</v>
       </c>
@@ -2254,30 +2295,34 @@
       <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3" t="str">
+        <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Unknown</v>
+      </c>
+      <c r="H2" s="5">
         <v>60850</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <f>G2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <f>H2*I2</f>
         <v>60850</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>40301</v>
       </c>
@@ -2296,31 +2341,35 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3" t="str">
+        <f>IF(F3="","",_xlfn.IFNA(VLOOKUP($F3,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H3" s="5">
         <v>265.3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>6</v>
       </c>
-      <c r="K3" s="5">
-        <f>G3*H3-I3</f>
+      <c r="L3" s="5">
+        <f>H3*I3-J3</f>
         <v>525.6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>40365</v>
       </c>
@@ -2339,31 +2388,35 @@
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3" t="str">
+        <f>IF(F4="","",_xlfn.IFNA(VLOOKUP($F4,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H4" s="5">
         <v>110.06</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K41" si="0">G4*H4-I4</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L41" si="0">H4*I4-J4</f>
         <v>547.29999999999995</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>40761</v>
       </c>
@@ -2382,31 +2435,35 @@
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3" t="str">
+        <f>IF(F5="","",_xlfn.IFNA(VLOOKUP($F5,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H5" s="5">
         <v>12.61</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>36.83</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>40889</v>
       </c>
@@ -2425,31 +2482,35 @@
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3" t="str">
+        <f>IF(F6="","",_xlfn.IFNA(VLOOKUP($F6,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H6" s="5">
         <v>18.02</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>90.1</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>40942</v>
       </c>
@@ -2468,31 +2529,35 @@
       <c r="F7" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3" t="str">
+        <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H7" s="5">
         <v>59.17</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>414.19</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>41033</v>
       </c>
@@ -2511,30 +2576,34 @@
       <c r="F8" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3" t="str">
+        <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H8" s="5">
         <v>27.95</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>83.85</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>41125</v>
       </c>
@@ -2553,30 +2622,34 @@
       <c r="F9" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3" t="str">
+        <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H9" s="5">
         <v>14.24</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41194</v>
       </c>
@@ -2595,30 +2668,34 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3" t="str">
+        <f>IF(F10="","",_xlfn.IFNA(VLOOKUP($F10,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H10" s="5">
         <v>63.39</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>370.34000000000003</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>41308</v>
       </c>
@@ -2637,30 +2714,34 @@
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3" t="str">
+        <f>IF(F11="","",_xlfn.IFNA(VLOOKUP($F11,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H11" s="5">
         <v>45.98</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>10</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>173.92</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>41337</v>
       </c>
@@ -2679,30 +2760,34 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3" t="str">
+        <f>IF(F12="","",_xlfn.IFNA(VLOOKUP($F12,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H12" s="5">
         <v>410.75</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>100</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>310.75</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>41494</v>
       </c>
@@ -2721,30 +2806,34 @@
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3" t="str">
+        <f>IF(F13="","",_xlfn.IFNA(VLOOKUP($F13,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H13" s="5">
         <v>295.74</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>293.74</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>41556</v>
       </c>
@@ -2763,30 +2852,34 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3" t="str">
+        <f>IF(F14="","",_xlfn.IFNA(VLOOKUP($F14,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H14" s="5">
         <v>17.38</v>
       </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="5">
         <v>5</v>
       </c>
       <c r="K14" s="5">
+        <v>5</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>81.899999999999991</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>41673</v>
       </c>
@@ -2805,30 +2898,34 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3" t="str">
+        <f>IF(F15="","",_xlfn.IFNA(VLOOKUP($F15,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H15" s="5">
         <v>49.53</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>4</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>243.65</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>41675</v>
       </c>
@@ -2847,30 +2944,34 @@
       <c r="F16" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3" t="str">
+        <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H16" s="5">
         <v>85.16</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>252.48</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>41981</v>
       </c>
@@ -2889,30 +2990,34 @@
       <c r="F17" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3" t="str">
+        <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H17" s="5">
         <v>48.86</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>2</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <f t="shared" si="0"/>
         <v>486.6</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>42037</v>
       </c>
@@ -2931,30 +3036,34 @@
       <c r="F18" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3" t="str">
+        <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H18" s="5">
         <v>90.13</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>1</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <f t="shared" si="0"/>
         <v>2702.8999999999996</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>42071</v>
       </c>
@@ -2973,30 +3082,34 @@
       <c r="F19" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3" t="str">
+        <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H19" s="5">
         <v>23.45</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>20</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>42343</v>
       </c>
@@ -3015,30 +3128,34 @@
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3" t="str">
+        <f>IF(F20="","",_xlfn.IFNA(VLOOKUP($F20,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H20" s="5">
         <v>68.83</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>3</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>1443.43</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>42406</v>
       </c>
@@ -3057,30 +3174,34 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3" t="str">
+        <f>IF(F21="","",_xlfn.IFNA(VLOOKUP($F21,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H21" s="5">
         <v>48.49</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>4</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
         <v>92.98</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>42620</v>
       </c>
@@ -3099,30 +3220,34 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3" t="str">
+        <f>IF(F22="","",_xlfn.IFNA(VLOOKUP($F22,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H22" s="5">
         <v>807.99</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>2</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="0"/>
         <v>1615.98</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>42745</v>
       </c>
@@ -3141,30 +3266,34 @@
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3" t="str">
+        <f>IF(F23="","",_xlfn.IFNA(VLOOKUP($F23,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H23" s="5">
         <v>795.9</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
       </c>
       <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="0"/>
         <v>1591.8</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>42865</v>
       </c>
@@ -3183,30 +3312,34 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3" t="str">
+        <f>IF(F24="","",_xlfn.IFNA(VLOOKUP($F24,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H24" s="5">
         <v>38.32</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="0"/>
         <v>383.2</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43077</v>
       </c>
@@ -3225,30 +3358,34 @@
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3" t="str">
+        <f>IF(F25="","",_xlfn.IFNA(VLOOKUP($F25,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H25" s="5">
         <v>85.22</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>10</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>4</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>0</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="0"/>
         <v>848.2</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43286</v>
       </c>
@@ -3267,30 +3404,34 @@
       <c r="F26" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3" t="str">
+        <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H26" s="5">
         <v>195.99</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>2</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>5</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <f t="shared" si="0"/>
         <v>977.95</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>43346</v>
       </c>
@@ -3309,30 +3450,34 @@
       <c r="F27" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3" t="str">
+        <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H27" s="5">
         <v>79.599999999999994</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>2</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>4</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <f t="shared" si="0"/>
         <v>236.79999999999998</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>43589</v>
       </c>
@@ -3351,30 +3496,34 @@
       <c r="F28" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3" t="str">
+        <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H28" s="5">
         <v>188.24</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>5</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>1</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>2</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <f t="shared" si="0"/>
         <v>940.2</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43717</v>
       </c>
@@ -3393,30 +3542,34 @@
       <c r="F29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3" t="str">
+        <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H29" s="5">
         <v>43.85</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>6</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>7</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <f t="shared" si="0"/>
         <v>125.55000000000001</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>43809</v>
       </c>
@@ -3435,30 +3588,34 @@
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3" t="str">
+        <f>IF(F30="","",_xlfn.IFNA(VLOOKUP($F30,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H30" s="5">
         <v>104.94</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>8</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>4</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <f t="shared" si="0"/>
         <v>838.52</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43864</v>
       </c>
@@ -3477,30 +3634,34 @@
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3" t="str">
+        <f>IF(F31="","",_xlfn.IFNA(VLOOKUP($F31,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H31" s="5">
         <v>106.41</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>10</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>10</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <v>2</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <f t="shared" si="0"/>
         <v>1054.0999999999999</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43898</v>
       </c>
@@ -3519,30 +3680,34 @@
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3" t="str">
+        <f>IF(F32="","",_xlfn.IFNA(VLOOKUP($F32,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H32" s="5">
         <v>1215.79</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>10</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>2</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <f t="shared" si="0"/>
         <v>3637.37</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43991</v>
       </c>
@@ -3561,30 +3726,34 @@
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3" t="str">
+        <f>IF(F33="","",_xlfn.IFNA(VLOOKUP($F33,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H33" s="5">
         <v>2600.86</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>200</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>20</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="0"/>
         <v>5001.72</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44177</v>
       </c>
@@ -3603,30 +3772,34 @@
       <c r="F34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3" t="str">
+        <f>IF(F34="","",_xlfn.IFNA(VLOOKUP($F34,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H34" s="5">
         <v>121.78</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>4</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>10</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>0</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <f t="shared" si="0"/>
         <v>477.12</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>44203</v>
       </c>
@@ -3645,30 +3818,34 @@
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3" t="str">
+        <f>IF(F35="","",_xlfn.IFNA(VLOOKUP($F35,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H35" s="5">
         <v>144.80000000000001</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>10</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>6</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <f t="shared" si="0"/>
         <v>2886</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44322</v>
       </c>
@@ -3687,30 +3864,34 @@
       <c r="F36" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3" t="str">
+        <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H36" s="5">
         <v>644.34</v>
       </c>
-      <c r="H36" s="3">
+      <c r="I36" s="3">
         <v>30</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>10</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>3</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <f t="shared" si="0"/>
         <v>19320.2</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44558</v>
       </c>
@@ -3729,30 +3910,34 @@
       <c r="F37" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3" t="str">
+        <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Europe</v>
+      </c>
+      <c r="H37" s="5">
         <v>166.42</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>13</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="5">
         <v>20</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K37" s="5">
         <v>3</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <f t="shared" si="0"/>
         <v>2143.46</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44594</v>
       </c>
@@ -3771,30 +3956,34 @@
       <c r="F38" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3" t="str">
+        <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H38" s="5">
         <v>122.88</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>30</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <f t="shared" si="0"/>
         <v>3686.3999999999996</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44624</v>
       </c>
@@ -3813,30 +4002,34 @@
       <c r="F39" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3" t="str">
+        <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>Asia</v>
+      </c>
+      <c r="H39" s="5">
         <v>105.06</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>30</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>2</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <f t="shared" si="0"/>
         <v>3151.8</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44663</v>
       </c>
@@ -3855,30 +4048,34 @@
       <c r="F40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3" t="str">
+        <f>IF(F40="","",_xlfn.IFNA(VLOOKUP($F40,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H40" s="5">
         <v>137.27000000000001</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <v>10</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>30</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <f t="shared" si="0"/>
         <v>1342.7</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44683</v>
       </c>
@@ -3897,35 +4094,39 @@
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3" t="str">
+        <f>IF(F41="","",_xlfn.IFNA(VLOOKUP($F41,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
+        <v>North America</v>
+      </c>
+      <c r="H41" s="5">
         <v>115.76</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>40</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>0</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <f t="shared" si="0"/>
         <v>1233.3600000000001</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G44" s="6"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H44" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
       <formula1>"Buy,Sell,Deposit,Withdrawal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3952,17 +4153,17 @@
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F54F842A-6630-074C-8ECA-2CC09092A0BF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AC691FA-6126-5D4F-8FA5-46513B4FA87B}">
+          <x14:formula1>
+            <xm:f>Categorisation!$F$2:$F$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67BFEF95-9976-7F4E-955A-BAF492FDD04A}">
           <x14:formula1>
             <xm:f>Categorisation!$D$2:$D$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AC691FA-6126-5D4F-8FA5-46513B4FA87B}">
-          <x14:formula1>
-            <xm:f>Categorisation!$E$2:$E$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3972,10 +4173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305EB1E-3E35-DB44-B616-B072F9A14F6B}">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3984,10 +4185,15 @@
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -4001,10 +4207,20 @@
         <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>567</v>
       </c>
@@ -4018,13 +4234,22 @@
         <v>285</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>394</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>568</v>
       </c>
@@ -4038,13 +4263,22 @@
         <v>286</v>
       </c>
       <c r="E3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" t="s">
         <v>395</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>566</v>
       </c>
@@ -4058,10 +4292,19 @@
         <v>287</v>
       </c>
       <c r="E4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>569</v>
       </c>
@@ -4075,10 +4318,19 @@
         <v>288</v>
       </c>
       <c r="E5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>570</v>
       </c>
@@ -4092,10 +4344,19 @@
         <v>289</v>
       </c>
       <c r="E6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>572</v>
       </c>
@@ -4109,10 +4370,19 @@
         <v>290</v>
       </c>
       <c r="E7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>573</v>
       </c>
@@ -4125,11 +4395,17 @@
       <c r="D8" t="s">
         <v>291</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -4142,11 +4418,17 @@
       <c r="D9" t="s">
         <v>292</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>574</v>
       </c>
@@ -4159,11 +4441,17 @@
       <c r="D10" t="s">
         <v>293</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -4176,11 +4464,17 @@
       <c r="D11" t="s">
         <v>294</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>279</v>
       </c>
@@ -4190,11 +4484,17 @@
       <c r="D12" t="s">
         <v>295</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>280</v>
       </c>
@@ -4204,11 +4504,17 @@
       <c r="D13" t="s">
         <v>296</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>281</v>
       </c>
@@ -4218,11 +4524,17 @@
       <c r="D14" t="s">
         <v>297</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>282</v>
       </c>
@@ -4232,11 +4544,17 @@
       <c r="D15" t="s">
         <v>298</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>283</v>
       </c>
@@ -4246,11 +4564,17 @@
       <c r="D16" t="s">
         <v>299</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>284</v>
       </c>
@@ -4260,1551 +4584,2115 @@
       <c r="D17" t="s">
         <v>300</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>301</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>302</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>303</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>304</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>305</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>306</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>307</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>308</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>308</v>
+      </c>
+      <c r="I25" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>309</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>310</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>311</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>312</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>313</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>314</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>314</v>
+      </c>
+      <c r="I31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>315</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>315</v>
+      </c>
+      <c r="I32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
         <v>316</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>69</v>
       </c>
       <c r="D34" t="s">
         <v>317</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>318</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>318</v>
+      </c>
+      <c r="I35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>71</v>
       </c>
       <c r="D36" t="s">
         <v>319</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
         <v>320</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>321</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>322</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>322</v>
+      </c>
+      <c r="I39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>323</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>323</v>
+      </c>
+      <c r="I40" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>76</v>
       </c>
       <c r="D41" t="s">
         <v>324</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>325</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>326</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>79</v>
       </c>
       <c r="D44" t="s">
         <v>327</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>327</v>
+      </c>
+      <c r="I44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>328</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>328</v>
+      </c>
+      <c r="I45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>81</v>
       </c>
       <c r="D46" t="s">
         <v>329</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>329</v>
+      </c>
+      <c r="I46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>82</v>
       </c>
       <c r="D47" t="s">
         <v>330</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I47" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>83</v>
       </c>
       <c r="D48" t="s">
         <v>331</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>84</v>
       </c>
       <c r="D49" t="s">
         <v>332</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>332</v>
+      </c>
+      <c r="I49" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>85</v>
       </c>
       <c r="D50" t="s">
         <v>333</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>86</v>
       </c>
       <c r="D51" t="s">
         <v>334</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52" t="s">
         <v>335</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>335</v>
+      </c>
+      <c r="I52" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>336</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>336</v>
+      </c>
+      <c r="I53" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>89</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>337</v>
+      </c>
+      <c r="I54" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>90</v>
       </c>
       <c r="D55" t="s">
         <v>338</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>338</v>
+      </c>
+      <c r="I55" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>91</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>339</v>
+      </c>
+      <c r="I56" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>92</v>
       </c>
       <c r="D57" t="s">
         <v>340</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>340</v>
+      </c>
+      <c r="I57" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>93</v>
       </c>
       <c r="D58" t="s">
         <v>341</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>341</v>
+      </c>
+      <c r="I58" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>94</v>
       </c>
       <c r="D59" t="s">
         <v>342</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>342</v>
+      </c>
+      <c r="I59" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>343</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>343</v>
+      </c>
+      <c r="I60" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>344</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>344</v>
+      </c>
+      <c r="I61" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>97</v>
       </c>
       <c r="D62" t="s">
         <v>345</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>345</v>
+      </c>
+      <c r="I62" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>346</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>347</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>347</v>
+      </c>
+      <c r="I64" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>348</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>348</v>
+      </c>
+      <c r="I65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>101</v>
       </c>
       <c r="D66" t="s">
         <v>349</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>349</v>
+      </c>
+      <c r="I66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>102</v>
       </c>
       <c r="D67" t="s">
         <v>350</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>350</v>
+      </c>
+      <c r="I67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>103</v>
       </c>
       <c r="D68" t="s">
         <v>351</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>351</v>
+      </c>
+      <c r="I68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>104</v>
       </c>
       <c r="D69" t="s">
         <v>352</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>352</v>
+      </c>
+      <c r="I69" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>105</v>
       </c>
       <c r="D70" t="s">
         <v>353</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>353</v>
+      </c>
+      <c r="I70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
         <v>354</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>354</v>
+      </c>
+      <c r="I71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>355</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>108</v>
       </c>
       <c r="D73" t="s">
         <v>356</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>356</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>109</v>
       </c>
       <c r="D74" t="s">
         <v>357</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>357</v>
+      </c>
+      <c r="I74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>110</v>
       </c>
       <c r="D75" t="s">
         <v>358</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>358</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>111</v>
       </c>
       <c r="D76" t="s">
         <v>359</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>359</v>
+      </c>
+      <c r="I76" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>112</v>
       </c>
       <c r="D77" t="s">
         <v>360</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>360</v>
+      </c>
+      <c r="I77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>113</v>
       </c>
       <c r="D78" t="s">
         <v>361</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>361</v>
+      </c>
+      <c r="I78" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>114</v>
       </c>
       <c r="D79" t="s">
         <v>362</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>362</v>
+      </c>
+      <c r="I79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>115</v>
       </c>
       <c r="D80" t="s">
         <v>363</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>363</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>116</v>
       </c>
       <c r="D81" t="s">
         <v>364</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I81" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>117</v>
       </c>
       <c r="D82" t="s">
         <v>365</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>118</v>
       </c>
       <c r="D83" t="s">
         <v>366</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>366</v>
+      </c>
+      <c r="I83" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>119</v>
       </c>
       <c r="D84" t="s">
         <v>367</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>367</v>
+      </c>
+      <c r="I84" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>120</v>
       </c>
       <c r="D85" t="s">
         <v>368</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>368</v>
+      </c>
+      <c r="I85" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>121</v>
       </c>
       <c r="D86" t="s">
         <v>369</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>122</v>
       </c>
       <c r="D87" t="s">
         <v>370</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>370</v>
+      </c>
+      <c r="I87" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>123</v>
       </c>
       <c r="D88" t="s">
         <v>371</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>371</v>
+      </c>
+      <c r="I88" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>124</v>
       </c>
       <c r="D89" t="s">
         <v>372</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>372</v>
+      </c>
+      <c r="I89" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>125</v>
       </c>
       <c r="D90" t="s">
         <v>373</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>373</v>
+      </c>
+      <c r="I90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>126</v>
       </c>
       <c r="D91" t="s">
         <v>374</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>374</v>
+      </c>
+      <c r="I91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>127</v>
       </c>
       <c r="D92" t="s">
         <v>375</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>375</v>
+      </c>
+      <c r="I92" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>128</v>
       </c>
       <c r="D93" t="s">
         <v>376</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>376</v>
+      </c>
+      <c r="I93" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>129</v>
       </c>
       <c r="D94" t="s">
         <v>377</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>377</v>
+      </c>
+      <c r="I94" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>130</v>
       </c>
       <c r="D95" t="s">
         <v>378</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>378</v>
+      </c>
+      <c r="I95" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>131</v>
       </c>
       <c r="D96" t="s">
         <v>379</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>379</v>
+      </c>
+      <c r="I96" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>132</v>
       </c>
       <c r="D97" t="s">
         <v>380</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>380</v>
+      </c>
+      <c r="I97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>133</v>
       </c>
       <c r="D98" t="s">
         <v>381</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>381</v>
+      </c>
+      <c r="I98" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>134</v>
       </c>
       <c r="D99" t="s">
         <v>382</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>382</v>
+      </c>
+      <c r="I99" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>135</v>
       </c>
       <c r="D100" t="s">
         <v>383</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>383</v>
+      </c>
+      <c r="I100" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>136</v>
       </c>
       <c r="D101" t="s">
         <v>384</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>384</v>
+      </c>
+      <c r="I101" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>137</v>
       </c>
       <c r="D102" t="s">
         <v>385</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>385</v>
+      </c>
+      <c r="I102" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>138</v>
       </c>
       <c r="D103" t="s">
         <v>386</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>386</v>
+      </c>
+      <c r="I103" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>139</v>
       </c>
       <c r="D104" t="s">
         <v>387</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>387</v>
+      </c>
+      <c r="I104" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>140</v>
       </c>
       <c r="D105" t="s">
         <v>388</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>388</v>
+      </c>
+      <c r="I105" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>141</v>
       </c>
       <c r="D106" t="s">
         <v>389</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>389</v>
+      </c>
+      <c r="I106" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>142</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>143</v>
       </c>
       <c r="D108" t="s">
         <v>390</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>390</v>
+      </c>
+      <c r="I108" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>144</v>
       </c>
       <c r="D109" t="s">
         <v>391</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>391</v>
+      </c>
+      <c r="I109" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>145</v>
       </c>
       <c r="D110" t="s">
         <v>392</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>392</v>
+      </c>
+      <c r="I110" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>146</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>147</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>148</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>149</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>150</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>151</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>152</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>153</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>154</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>155</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>156</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>157</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>158</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>159</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>160</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>161</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>162</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>163</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>164</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>165</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>166</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>167</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>168</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>169</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>170</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>171</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>172</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>173</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>174</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>175</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>176</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>177</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>178</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>179</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>180</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>181</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>182</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>183</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>184</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>185</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>186</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>187</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>188</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>189</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>190</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>191</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>192</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>193</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>194</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>195</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>196</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>197</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>198</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>199</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>200</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>201</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>202</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>203</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>204</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>205</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>206</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>207</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>208</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>209</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>211</v>
       </c>
@@ -6121,7 +7009,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{CF104A1B-7EBD-B944-AB33-261BF64E2E0E}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{CF104A1B-7EBD-B944-AB33-261BF64E2E0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A9E5A8-633D-7143-84BA-B00C42A58655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28485B9D-79A5-094D-8512-EEC910E08045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="583">
   <si>
     <t>Country</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Footwear &amp; Accesories</t>
   </si>
   <si>
     <t>BABA</t>
@@ -2217,7 +2214,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2234,13 +2231,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -2252,25 +2249,25 @@
         <v>0</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>2</v>
@@ -2281,19 +2278,19 @@
         <v>40301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2316,7 +2313,7 @@
         <v>60850</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>4</v>
@@ -2330,13 +2327,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -2362,7 +2359,7 @@
         <v>525.6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>4</v>
@@ -2377,13 +2374,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -2409,7 +2406,7 @@
         <v>547.29999999999995</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>4</v>
@@ -2424,13 +2421,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -2456,7 +2453,7 @@
         <v>36.83</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>4</v>
@@ -2471,13 +2468,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -2503,7 +2500,7 @@
         <v>90.1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>4</v>
@@ -2518,16 +2515,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2550,7 +2547,7 @@
         <v>414.19</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>4</v>
@@ -2565,16 +2562,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
+      <c r="E8" t="s">
+        <v>119</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2597,7 +2594,7 @@
         <v>83.85</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -2608,19 +2605,19 @@
         <v>41125</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2643,7 +2640,7 @@
         <v>712</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -2654,16 +2651,16 @@
         <v>41194</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -2689,7 +2686,7 @@
         <v>370.34000000000003</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -2700,16 +2697,16 @@
         <v>41308</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -2735,7 +2732,7 @@
         <v>173.92</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>4</v>
@@ -2749,13 +2746,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -2781,7 +2778,7 @@
         <v>310.75</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -2795,13 +2792,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -2827,7 +2824,7 @@
         <v>293.74</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>4</v>
@@ -2841,13 +2838,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -2873,7 +2870,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -2887,13 +2884,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -2919,7 +2916,7 @@
         <v>243.65</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -2933,16 +2930,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2965,7 +2962,7 @@
         <v>252.48</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>4</v>
@@ -2979,16 +2976,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
+      <c r="E17" t="s">
+        <v>119</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3011,7 +3008,7 @@
         <v>486.6</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
@@ -3022,19 +3019,19 @@
         <v>42037</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3057,7 +3054,7 @@
         <v>2702.8999999999996</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
@@ -3068,19 +3065,19 @@
         <v>42071</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3103,7 +3100,7 @@
         <v>463</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
@@ -3114,16 +3111,16 @@
         <v>42343</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -3149,7 +3146,7 @@
         <v>1443.43</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
@@ -3160,16 +3157,16 @@
         <v>42406</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -3195,7 +3192,7 @@
         <v>92.98</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -3209,13 +3206,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -3241,7 +3238,7 @@
         <v>1615.98</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -3255,13 +3252,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -3287,7 +3284,7 @@
         <v>1591.8</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
@@ -3301,13 +3298,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -3333,7 +3330,7 @@
         <v>383.2</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -3347,13 +3344,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -3379,7 +3376,7 @@
         <v>848.2</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>4</v>
@@ -3393,16 +3390,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3425,7 +3422,7 @@
         <v>977.95</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
@@ -3439,16 +3436,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
+      <c r="E27" t="s">
+        <v>119</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3471,7 +3468,7 @@
         <v>236.79999999999998</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
@@ -3482,19 +3479,19 @@
         <v>43589</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3517,7 +3514,7 @@
         <v>940.2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
@@ -3528,19 +3525,19 @@
         <v>43717</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3563,7 +3560,7 @@
         <v>125.55000000000001</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -3574,16 +3571,16 @@
         <v>43809</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3609,7 +3606,7 @@
         <v>838.52</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>4</v>
@@ -3620,16 +3617,16 @@
         <v>43864</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
@@ -3655,7 +3652,7 @@
         <v>1054.0999999999999</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>4</v>
@@ -3669,13 +3666,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -3701,7 +3698,7 @@
         <v>3637.37</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -3715,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -3747,7 +3744,7 @@
         <v>5001.72</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
@@ -3761,13 +3758,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
@@ -3793,7 +3790,7 @@
         <v>477.12</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>4</v>
@@ -3807,13 +3804,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -3839,7 +3836,7 @@
         <v>2886</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
@@ -3853,16 +3850,16 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3885,7 +3882,7 @@
         <v>19320.2</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>4</v>
@@ -3899,16 +3896,16 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
+      <c r="E37" t="s">
+        <v>119</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3931,7 +3928,7 @@
         <v>2143.46</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>4</v>
@@ -3942,19 +3939,19 @@
         <v>44594</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3977,7 +3974,7 @@
         <v>3686.3999999999996</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>4</v>
@@ -3988,19 +3985,19 @@
         <v>44624</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -4023,7 +4020,7 @@
         <v>3151.8</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>4</v>
@@ -4034,16 +4031,16 @@
         <v>44663</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
@@ -4069,7 +4066,7 @@
         <v>1342.7</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>4</v>
@@ -4080,16 +4077,16 @@
         <v>44683</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -4115,7 +4112,7 @@
         <v>1233.3600000000001</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -4175,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305EB1E-3E35-DB44-B616-B072F9A14F6B}">
   <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4195,2365 +4192,2365 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" t="s">
         <v>580</v>
-      </c>
-      <c r="F4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I4" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I38" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I65" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I66" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F72" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I72" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F74" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F75" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F78" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I79" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H81" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I81" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H82" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F83" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F84" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F85" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I86" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F87" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I87" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F88" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I88" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I91" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I93" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F94" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I94" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I95" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F96" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F97" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I97" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F98" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F99" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I99" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F100" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F101" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I101" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F102" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I102" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F103" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I103" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F105" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F106" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I106" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F108" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I108" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I109" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H110" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F111" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F114" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F117" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F120" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F121" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F122" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F123" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F124" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F126" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F127" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F131" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F132" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F133" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F134" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F135" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F136" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F137" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F138" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F139" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F140" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F141" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F142" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F143" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F144" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F146" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F147" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F148" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F149" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F150" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F151" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F152" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F153" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F154" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F155" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F156" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F157" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
@@ -6561,250 +6558,250 @@
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F159" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F160" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F161" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F162" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F163" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F164" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F165" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F166" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F167" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F168" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F169" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F170" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F171" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F172" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F173" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F174" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
@@ -6814,197 +6811,197 @@
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\OneDrive\Desktop\Openbb\OpenBBTerminal\portfolio\holdings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28485B9D-79A5-094D-8512-EEC910E08045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CE396-4BA4-4815-BEA7-AF44D8C0ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="39855" yWindow="5070" windowWidth="17280" windowHeight="8880" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -133,9 +132,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -1799,6 +1795,9 @@
   </si>
   <si>
     <t>Middle East</t>
+  </si>
+  <si>
+    <t>Ticker</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1898,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2214,27 +2213,27 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.296875" customWidth="1"/>
+    <col min="12" max="12" width="21.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>582</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>26</v>
@@ -2249,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>22</v>
@@ -2261,10 +2260,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>24</v>
@@ -2273,24 +2272,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>40301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2313,13 +2312,13 @@
         <v>60850</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>40301</v>
       </c>
@@ -2327,13 +2326,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -2366,7 +2365,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>40365</v>
       </c>
@@ -2374,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>40761</v>
       </c>
@@ -2421,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>40889</v>
       </c>
@@ -2468,13 +2467,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -2507,7 +2506,7 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>40942</v>
       </c>
@@ -2515,16 +2514,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2554,7 +2553,7 @@
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>41033</v>
       </c>
@@ -2562,16 +2561,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2600,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>41125</v>
       </c>
@@ -2608,16 +2607,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2646,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>41194</v>
       </c>
@@ -2654,13 +2653,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -2692,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>41308</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -2738,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>41337</v>
       </c>
@@ -2746,13 +2745,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -2784,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>41494</v>
       </c>
@@ -2792,13 +2791,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -2830,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>41556</v>
       </c>
@@ -2838,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -2876,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>41673</v>
       </c>
@@ -2884,13 +2883,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -2922,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>41675</v>
       </c>
@@ -2930,16 +2929,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -2968,7 +2967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>41981</v>
       </c>
@@ -2976,16 +2975,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3014,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42037</v>
       </c>
@@ -3022,16 +3021,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3060,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42071</v>
       </c>
@@ -3068,16 +3067,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3106,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42343</v>
       </c>
@@ -3114,13 +3113,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42406</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
@@ -3198,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42620</v>
       </c>
@@ -3206,13 +3205,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -3244,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42745</v>
       </c>
@@ -3252,13 +3251,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -3290,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42865</v>
       </c>
@@ -3298,13 +3297,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -3336,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43077</v>
       </c>
@@ -3344,13 +3343,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -3382,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43286</v>
       </c>
@@ -3390,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3428,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43346</v>
       </c>
@@ -3436,16 +3435,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3474,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43589</v>
       </c>
@@ -3482,16 +3481,16 @@
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3520,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43717</v>
       </c>
@@ -3528,16 +3527,16 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3566,7 +3565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43809</v>
       </c>
@@ -3574,13 +3573,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3612,7 +3611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43864</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
@@ -3658,7 +3657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43898</v>
       </c>
@@ -3666,13 +3665,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -3704,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>43991</v>
       </c>
@@ -3712,13 +3711,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -3750,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44177</v>
       </c>
@@ -3758,13 +3757,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
@@ -3796,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44203</v>
       </c>
@@ -3804,13 +3803,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -3842,7 +3841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44322</v>
       </c>
@@ -3850,16 +3849,16 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3888,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44558</v>
       </c>
@@ -3896,16 +3895,16 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3934,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44594</v>
       </c>
@@ -3942,16 +3941,16 @@
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -3980,7 +3979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>44624</v>
       </c>
@@ -3988,16 +3987,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
@@ -4026,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44663</v>
       </c>
@@ -4034,13 +4033,13 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
@@ -4072,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>44683</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -4118,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H44" s="6"/>
     </row>
   </sheetData>
@@ -4176,2832 +4175,2832 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>566</v>
-      </c>
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" t="s">
-        <v>582</v>
-      </c>
-      <c r="K2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>567</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" t="s">
+        <v>576</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>285</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>578</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>394</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>285</v>
       </c>
-      <c r="I3" t="s">
-        <v>577</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>579</v>
       </c>
-      <c r="F4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>287</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>580</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>396</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>287</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" t="s">
+        <v>301</v>
+      </c>
+      <c r="I20" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" t="s">
+        <v>412</v>
+      </c>
+      <c r="H22" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" t="s">
+        <v>414</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" t="s">
+        <v>416</v>
+      </c>
+      <c r="H26" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" t="s">
+        <v>417</v>
+      </c>
+      <c r="H27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H28" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" t="s">
         <v>581</v>
       </c>
-      <c r="F6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="H30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" t="s">
+        <v>313</v>
+      </c>
+      <c r="I32" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" t="s">
+        <v>314</v>
+      </c>
+      <c r="I33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I34" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+      <c r="H36" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" t="s">
+        <v>427</v>
+      </c>
+      <c r="H37" t="s">
+        <v>318</v>
+      </c>
+      <c r="I37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>428</v>
+      </c>
+      <c r="H38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" t="s">
+        <v>429</v>
+      </c>
+      <c r="H39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" t="s">
+        <v>430</v>
+      </c>
+      <c r="H40" t="s">
+        <v>321</v>
+      </c>
+      <c r="I40" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>322</v>
+      </c>
+      <c r="F41" t="s">
+        <v>431</v>
+      </c>
+      <c r="H41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I41" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" t="s">
+        <v>432</v>
+      </c>
+      <c r="H42" t="s">
+        <v>323</v>
+      </c>
+      <c r="I42" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" t="s">
-        <v>582</v>
-      </c>
-      <c r="F7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I7" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43" t="s">
+        <v>433</v>
+      </c>
+      <c r="H43" t="s">
+        <v>324</v>
+      </c>
+      <c r="I43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" t="s">
+        <v>434</v>
+      </c>
+      <c r="H44" t="s">
+        <v>325</v>
+      </c>
+      <c r="I44" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" t="s">
+        <v>436</v>
+      </c>
+      <c r="H46" t="s">
+        <v>327</v>
+      </c>
+      <c r="I46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" t="s">
+        <v>437</v>
+      </c>
+      <c r="H47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I47" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" t="s">
+        <v>438</v>
+      </c>
+      <c r="H48" t="s">
+        <v>329</v>
+      </c>
+      <c r="I48" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>330</v>
+      </c>
+      <c r="F49" t="s">
+        <v>439</v>
+      </c>
+      <c r="H49" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>331</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="H50" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>332</v>
+      </c>
+      <c r="F51" t="s">
+        <v>441</v>
+      </c>
+      <c r="H51" t="s">
+        <v>332</v>
+      </c>
+      <c r="I51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="H52" t="s">
+        <v>333</v>
+      </c>
+      <c r="I52" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" t="s">
+        <v>334</v>
+      </c>
+      <c r="I53" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>335</v>
+      </c>
+      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" t="s">
+        <v>335</v>
+      </c>
+      <c r="I54" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="H55" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="H56" t="s">
+        <v>337</v>
+      </c>
+      <c r="I56" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
+        <v>338</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="H57" t="s">
+        <v>338</v>
+      </c>
+      <c r="I57" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>339</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="H58" t="s">
+        <v>339</v>
+      </c>
+      <c r="I58" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>340</v>
+      </c>
+      <c r="F59" t="s">
+        <v>449</v>
+      </c>
+      <c r="H59" t="s">
+        <v>340</v>
+      </c>
+      <c r="I59" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="F60" t="s">
+        <v>450</v>
+      </c>
+      <c r="H60" t="s">
+        <v>341</v>
+      </c>
+      <c r="I60" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>342</v>
+      </c>
+      <c r="F61" t="s">
+        <v>451</v>
+      </c>
+      <c r="H61" t="s">
+        <v>342</v>
+      </c>
+      <c r="I61" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
+        <v>343</v>
+      </c>
+      <c r="F62" t="s">
+        <v>452</v>
+      </c>
+      <c r="H62" t="s">
+        <v>343</v>
+      </c>
+      <c r="I62" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
+        <v>344</v>
+      </c>
+      <c r="F63" t="s">
+        <v>453</v>
+      </c>
+      <c r="H63" t="s">
+        <v>344</v>
+      </c>
+      <c r="I63" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
+        <v>345</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="H64" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" t="s">
+        <v>455</v>
+      </c>
+      <c r="H65" t="s">
+        <v>346</v>
+      </c>
+      <c r="I65" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" t="s">
+        <v>456</v>
+      </c>
+      <c r="H66" t="s">
+        <v>347</v>
+      </c>
+      <c r="I66" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" t="s">
-        <v>401</v>
-      </c>
-      <c r="H10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>348</v>
+      </c>
+      <c r="F67" t="s">
+        <v>457</v>
+      </c>
+      <c r="H67" t="s">
+        <v>348</v>
+      </c>
+      <c r="I67" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>570</v>
-      </c>
-      <c r="B11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" t="s">
-        <v>293</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>349</v>
+      </c>
+      <c r="F68" t="s">
+        <v>458</v>
+      </c>
+      <c r="H68" t="s">
+        <v>349</v>
+      </c>
+      <c r="I68" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" t="s">
-        <v>403</v>
-      </c>
-      <c r="H12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" t="s">
+        <v>459</v>
+      </c>
+      <c r="H69" t="s">
+        <v>350</v>
+      </c>
+      <c r="I69" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" t="s">
-        <v>404</v>
-      </c>
-      <c r="H13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" t="s">
+        <v>460</v>
+      </c>
+      <c r="H70" t="s">
+        <v>351</v>
+      </c>
+      <c r="I70" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" t="s">
+        <v>352</v>
+      </c>
+      <c r="F71" t="s">
+        <v>461</v>
+      </c>
+      <c r="H71" t="s">
+        <v>352</v>
+      </c>
+      <c r="I71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
+        <v>353</v>
+      </c>
+      <c r="F72" t="s">
+        <v>462</v>
+      </c>
+      <c r="H72" t="s">
+        <v>353</v>
+      </c>
+      <c r="I72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" t="s">
+        <v>463</v>
+      </c>
+      <c r="H73" t="s">
+        <v>354</v>
+      </c>
+      <c r="I73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" t="s">
+        <v>464</v>
+      </c>
+      <c r="H74" t="s">
+        <v>355</v>
+      </c>
+      <c r="I74" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" t="s">
+        <v>465</v>
+      </c>
+      <c r="H75" t="s">
+        <v>356</v>
+      </c>
+      <c r="I75" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" t="s">
+        <v>466</v>
+      </c>
+      <c r="H76" t="s">
+        <v>357</v>
+      </c>
+      <c r="I76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" t="s">
+        <v>467</v>
+      </c>
+      <c r="H77" t="s">
+        <v>358</v>
+      </c>
+      <c r="I77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>359</v>
+      </c>
+      <c r="F78" t="s">
+        <v>468</v>
+      </c>
+      <c r="H78" t="s">
+        <v>359</v>
+      </c>
+      <c r="I78" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" t="s">
+        <v>360</v>
+      </c>
+      <c r="F79" t="s">
+        <v>469</v>
+      </c>
+      <c r="H79" t="s">
+        <v>360</v>
+      </c>
+      <c r="I79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" t="s">
+        <v>361</v>
+      </c>
+      <c r="F80" t="s">
+        <v>470</v>
+      </c>
+      <c r="H80" t="s">
+        <v>361</v>
+      </c>
+      <c r="I80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" t="s">
+        <v>362</v>
+      </c>
+      <c r="F81" t="s">
+        <v>471</v>
+      </c>
+      <c r="H81" t="s">
+        <v>362</v>
+      </c>
+      <c r="I81" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>363</v>
+      </c>
+      <c r="F82" t="s">
+        <v>472</v>
+      </c>
+      <c r="H82" t="s">
+        <v>363</v>
+      </c>
+      <c r="I82" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>364</v>
+      </c>
+      <c r="F83" t="s">
+        <v>473</v>
+      </c>
+      <c r="H83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>365</v>
+      </c>
+      <c r="F84" t="s">
+        <v>474</v>
+      </c>
+      <c r="H84" t="s">
+        <v>365</v>
+      </c>
+      <c r="I84" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>366</v>
+      </c>
+      <c r="F85" t="s">
+        <v>475</v>
+      </c>
+      <c r="H85" t="s">
+        <v>366</v>
+      </c>
+      <c r="I85" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" t="s">
-        <v>406</v>
-      </c>
-      <c r="H15" t="s">
-        <v>297</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" t="s">
+        <v>367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>476</v>
+      </c>
+      <c r="H86" t="s">
+        <v>367</v>
+      </c>
+      <c r="I86" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" t="s">
-        <v>298</v>
-      </c>
-      <c r="I16" t="s">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" t="s">
+        <v>368</v>
+      </c>
+      <c r="F87" t="s">
+        <v>477</v>
+      </c>
+      <c r="H87" t="s">
+        <v>368</v>
+      </c>
+      <c r="I87" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" t="s">
-        <v>408</v>
-      </c>
-      <c r="H17" t="s">
-        <v>299</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" t="s">
+        <v>478</v>
+      </c>
+      <c r="H88" t="s">
+        <v>369</v>
+      </c>
+      <c r="I88" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" t="s">
+        <v>479</v>
+      </c>
+      <c r="H89" t="s">
+        <v>370</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" t="s">
+        <v>371</v>
+      </c>
+      <c r="F90" t="s">
+        <v>480</v>
+      </c>
+      <c r="H90" t="s">
+        <v>371</v>
+      </c>
+      <c r="I90" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" t="s">
+        <v>372</v>
+      </c>
+      <c r="F91" t="s">
+        <v>481</v>
+      </c>
+      <c r="H91" t="s">
+        <v>372</v>
+      </c>
+      <c r="I91" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" t="s">
+        <v>373</v>
+      </c>
+      <c r="F92" t="s">
+        <v>482</v>
+      </c>
+      <c r="H92" t="s">
+        <v>373</v>
+      </c>
+      <c r="I92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" t="s">
+        <v>374</v>
+      </c>
+      <c r="F93" t="s">
+        <v>483</v>
+      </c>
+      <c r="H93" t="s">
+        <v>374</v>
+      </c>
+      <c r="I93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" t="s">
+        <v>375</v>
+      </c>
+      <c r="F94" t="s">
+        <v>484</v>
+      </c>
+      <c r="H94" t="s">
+        <v>375</v>
+      </c>
+      <c r="I94" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" t="s">
+        <v>376</v>
+      </c>
+      <c r="F95" t="s">
+        <v>485</v>
+      </c>
+      <c r="H95" t="s">
+        <v>376</v>
+      </c>
+      <c r="I95" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" t="s">
+        <v>486</v>
+      </c>
+      <c r="H96" t="s">
+        <v>377</v>
+      </c>
+      <c r="I96" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s">
+        <v>378</v>
+      </c>
+      <c r="F97" t="s">
+        <v>487</v>
+      </c>
+      <c r="H97" t="s">
+        <v>378</v>
+      </c>
+      <c r="I97" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" t="s">
-        <v>409</v>
-      </c>
-      <c r="H18" t="s">
-        <v>300</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>379</v>
+      </c>
+      <c r="F98" t="s">
+        <v>488</v>
+      </c>
+      <c r="H98" t="s">
+        <v>379</v>
+      </c>
+      <c r="I98" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" t="s">
-        <v>410</v>
-      </c>
-      <c r="H19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" t="s">
+        <v>489</v>
+      </c>
+      <c r="H99" t="s">
+        <v>380</v>
+      </c>
+      <c r="I99" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" t="s">
-        <v>411</v>
-      </c>
-      <c r="H20" t="s">
-        <v>302</v>
-      </c>
-      <c r="I20" t="s">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" t="s">
+        <v>381</v>
+      </c>
+      <c r="F100" t="s">
+        <v>490</v>
+      </c>
+      <c r="H100" t="s">
+        <v>381</v>
+      </c>
+      <c r="I100" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="F101" t="s">
+        <v>491</v>
+      </c>
+      <c r="H101" t="s">
+        <v>382</v>
+      </c>
+      <c r="I101" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>412</v>
-      </c>
-      <c r="H21" t="s">
-        <v>303</v>
-      </c>
-      <c r="I21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" t="s">
-        <v>413</v>
-      </c>
-      <c r="H22" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H23" t="s">
-        <v>305</v>
-      </c>
-      <c r="I23" t="s">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>383</v>
+      </c>
+      <c r="F102" t="s">
+        <v>492</v>
+      </c>
+      <c r="H102" t="s">
+        <v>383</v>
+      </c>
+      <c r="I102" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103" t="s">
+        <v>493</v>
+      </c>
+      <c r="H103" t="s">
+        <v>384</v>
+      </c>
+      <c r="I103" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" t="s">
+        <v>385</v>
+      </c>
+      <c r="F104" t="s">
+        <v>494</v>
+      </c>
+      <c r="H104" t="s">
+        <v>385</v>
+      </c>
+      <c r="I104" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" t="s">
-        <v>415</v>
-      </c>
-      <c r="H24" t="s">
-        <v>306</v>
-      </c>
-      <c r="I24" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" t="s">
-        <v>416</v>
-      </c>
-      <c r="H25" t="s">
-        <v>307</v>
-      </c>
-      <c r="I25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" t="s">
-        <v>417</v>
-      </c>
-      <c r="H26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I26" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" t="s">
-        <v>418</v>
-      </c>
-      <c r="H27" t="s">
-        <v>309</v>
-      </c>
-      <c r="I27" t="s">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" t="s">
+        <v>386</v>
+      </c>
+      <c r="F105" t="s">
+        <v>495</v>
+      </c>
+      <c r="H105" t="s">
+        <v>386</v>
+      </c>
+      <c r="I105" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" t="s">
+        <v>387</v>
+      </c>
+      <c r="F106" t="s">
+        <v>496</v>
+      </c>
+      <c r="H106" t="s">
+        <v>387</v>
+      </c>
+      <c r="I106" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>310</v>
-      </c>
-      <c r="F28" t="s">
-        <v>419</v>
-      </c>
-      <c r="H28" t="s">
-        <v>310</v>
-      </c>
-      <c r="I28" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F29" t="s">
-        <v>420</v>
-      </c>
-      <c r="H29" t="s">
-        <v>311</v>
-      </c>
-      <c r="I29" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F30" t="s">
-        <v>421</v>
-      </c>
-      <c r="H30" t="s">
-        <v>312</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" t="s">
-        <v>422</v>
-      </c>
-      <c r="H31" t="s">
-        <v>313</v>
-      </c>
-      <c r="I31" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>314</v>
-      </c>
-      <c r="F32" t="s">
-        <v>423</v>
-      </c>
-      <c r="H32" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F33" t="s">
-        <v>424</v>
-      </c>
-      <c r="H33" t="s">
-        <v>315</v>
-      </c>
-      <c r="I33" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" t="s">
-        <v>425</v>
-      </c>
-      <c r="H34" t="s">
-        <v>316</v>
-      </c>
-      <c r="I34" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>317</v>
-      </c>
-      <c r="F35" t="s">
-        <v>426</v>
-      </c>
-      <c r="H35" t="s">
-        <v>317</v>
-      </c>
-      <c r="I35" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>318</v>
-      </c>
-      <c r="F36" t="s">
-        <v>427</v>
-      </c>
-      <c r="H36" t="s">
-        <v>318</v>
-      </c>
-      <c r="I36" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>319</v>
-      </c>
-      <c r="F37" t="s">
-        <v>428</v>
-      </c>
-      <c r="H37" t="s">
-        <v>319</v>
-      </c>
-      <c r="I37" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>320</v>
-      </c>
-      <c r="F38" t="s">
-        <v>429</v>
-      </c>
-      <c r="H38" t="s">
-        <v>320</v>
-      </c>
-      <c r="I38" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>321</v>
-      </c>
-      <c r="F39" t="s">
-        <v>430</v>
-      </c>
-      <c r="H39" t="s">
-        <v>321</v>
-      </c>
-      <c r="I39" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" t="s">
-        <v>431</v>
-      </c>
-      <c r="H40" t="s">
-        <v>322</v>
-      </c>
-      <c r="I40" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" t="s">
-        <v>323</v>
-      </c>
-      <c r="F41" t="s">
-        <v>432</v>
-      </c>
-      <c r="H41" t="s">
-        <v>323</v>
-      </c>
-      <c r="I41" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>324</v>
-      </c>
-      <c r="F42" t="s">
-        <v>433</v>
-      </c>
-      <c r="H42" t="s">
-        <v>324</v>
-      </c>
-      <c r="I42" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>325</v>
-      </c>
-      <c r="F43" t="s">
-        <v>434</v>
-      </c>
-      <c r="H43" t="s">
-        <v>325</v>
-      </c>
-      <c r="I43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>326</v>
-      </c>
-      <c r="F44" t="s">
-        <v>435</v>
-      </c>
-      <c r="H44" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F45" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" t="s">
-        <v>327</v>
-      </c>
-      <c r="I45" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" t="s">
-        <v>437</v>
-      </c>
-      <c r="H46" t="s">
-        <v>328</v>
-      </c>
-      <c r="I46" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>329</v>
-      </c>
-      <c r="F47" t="s">
-        <v>438</v>
-      </c>
-      <c r="H47" t="s">
-        <v>329</v>
-      </c>
-      <c r="I47" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>330</v>
-      </c>
-      <c r="F48" t="s">
-        <v>439</v>
-      </c>
-      <c r="H48" t="s">
-        <v>330</v>
-      </c>
-      <c r="I48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s">
-        <v>331</v>
-      </c>
-      <c r="F49" t="s">
-        <v>440</v>
-      </c>
-      <c r="H49" t="s">
-        <v>331</v>
-      </c>
-      <c r="I49" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>332</v>
-      </c>
-      <c r="F50" t="s">
-        <v>441</v>
-      </c>
-      <c r="H50" t="s">
-        <v>332</v>
-      </c>
-      <c r="I50" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>333</v>
-      </c>
-      <c r="F51" t="s">
-        <v>442</v>
-      </c>
-      <c r="H51" t="s">
-        <v>333</v>
-      </c>
-      <c r="I51" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>334</v>
-      </c>
-      <c r="F52" t="s">
-        <v>443</v>
-      </c>
-      <c r="H52" t="s">
-        <v>334</v>
-      </c>
-      <c r="I52" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" t="s">
-        <v>335</v>
-      </c>
-      <c r="F53" t="s">
-        <v>444</v>
-      </c>
-      <c r="H53" t="s">
-        <v>335</v>
-      </c>
-      <c r="I53" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>336</v>
-      </c>
-      <c r="F54" t="s">
-        <v>445</v>
-      </c>
-      <c r="H54" t="s">
-        <v>336</v>
-      </c>
-      <c r="I54" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>337</v>
-      </c>
-      <c r="F55" t="s">
-        <v>446</v>
-      </c>
-      <c r="H55" t="s">
-        <v>337</v>
-      </c>
-      <c r="I55" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" t="s">
-        <v>338</v>
-      </c>
-      <c r="F56" t="s">
-        <v>447</v>
-      </c>
-      <c r="H56" t="s">
-        <v>338</v>
-      </c>
-      <c r="I56" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>339</v>
-      </c>
-      <c r="F57" t="s">
-        <v>448</v>
-      </c>
-      <c r="H57" t="s">
-        <v>339</v>
-      </c>
-      <c r="I57" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F58" t="s">
-        <v>449</v>
-      </c>
-      <c r="H58" t="s">
-        <v>340</v>
-      </c>
-      <c r="I58" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>341</v>
-      </c>
-      <c r="F59" t="s">
-        <v>450</v>
-      </c>
-      <c r="H59" t="s">
-        <v>341</v>
-      </c>
-      <c r="I59" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" t="s">
-        <v>342</v>
-      </c>
-      <c r="F60" t="s">
-        <v>451</v>
-      </c>
-      <c r="H60" t="s">
-        <v>342</v>
-      </c>
-      <c r="I60" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F61" t="s">
-        <v>452</v>
-      </c>
-      <c r="H61" t="s">
-        <v>343</v>
-      </c>
-      <c r="I61" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" t="s">
-        <v>344</v>
-      </c>
-      <c r="F62" t="s">
-        <v>453</v>
-      </c>
-      <c r="H62" t="s">
-        <v>344</v>
-      </c>
-      <c r="I62" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" t="s">
-        <v>345</v>
-      </c>
-      <c r="F63" t="s">
-        <v>454</v>
-      </c>
-      <c r="H63" t="s">
-        <v>345</v>
-      </c>
-      <c r="I63" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" t="s">
-        <v>346</v>
-      </c>
-      <c r="F64" t="s">
-        <v>455</v>
-      </c>
-      <c r="H64" t="s">
-        <v>346</v>
-      </c>
-      <c r="I64" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>347</v>
-      </c>
-      <c r="F65" t="s">
-        <v>456</v>
-      </c>
-      <c r="H65" t="s">
-        <v>347</v>
-      </c>
-      <c r="I65" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>348</v>
-      </c>
-      <c r="F66" t="s">
-        <v>457</v>
-      </c>
-      <c r="H66" t="s">
-        <v>348</v>
-      </c>
-      <c r="I66" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" t="s">
-        <v>349</v>
-      </c>
-      <c r="F67" t="s">
-        <v>458</v>
-      </c>
-      <c r="H67" t="s">
-        <v>349</v>
-      </c>
-      <c r="I67" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" t="s">
-        <v>350</v>
-      </c>
-      <c r="F68" t="s">
-        <v>459</v>
-      </c>
-      <c r="H68" t="s">
-        <v>350</v>
-      </c>
-      <c r="I68" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>351</v>
-      </c>
-      <c r="F69" t="s">
-        <v>460</v>
-      </c>
-      <c r="H69" t="s">
-        <v>351</v>
-      </c>
-      <c r="I69" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" t="s">
-        <v>352</v>
-      </c>
-      <c r="F70" t="s">
-        <v>461</v>
-      </c>
-      <c r="H70" t="s">
-        <v>352</v>
-      </c>
-      <c r="I70" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" t="s">
-        <v>353</v>
-      </c>
-      <c r="F71" t="s">
-        <v>462</v>
-      </c>
-      <c r="H71" t="s">
-        <v>353</v>
-      </c>
-      <c r="I71" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" t="s">
-        <v>354</v>
-      </c>
-      <c r="F72" t="s">
-        <v>463</v>
-      </c>
-      <c r="H72" t="s">
-        <v>354</v>
-      </c>
-      <c r="I72" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>355</v>
-      </c>
-      <c r="F73" t="s">
-        <v>464</v>
-      </c>
-      <c r="H73" t="s">
-        <v>355</v>
-      </c>
-      <c r="I73" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" t="s">
-        <v>356</v>
-      </c>
-      <c r="F74" t="s">
-        <v>465</v>
-      </c>
-      <c r="H74" t="s">
-        <v>356</v>
-      </c>
-      <c r="I74" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>357</v>
-      </c>
-      <c r="F75" t="s">
-        <v>466</v>
-      </c>
-      <c r="H75" t="s">
-        <v>357</v>
-      </c>
-      <c r="I75" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" t="s">
-        <v>358</v>
-      </c>
-      <c r="F76" t="s">
-        <v>467</v>
-      </c>
-      <c r="H76" t="s">
-        <v>358</v>
-      </c>
-      <c r="I76" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" t="s">
-        <v>359</v>
-      </c>
-      <c r="F77" t="s">
-        <v>468</v>
-      </c>
-      <c r="H77" t="s">
-        <v>359</v>
-      </c>
-      <c r="I77" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" t="s">
-        <v>360</v>
-      </c>
-      <c r="F78" t="s">
-        <v>469</v>
-      </c>
-      <c r="H78" t="s">
-        <v>360</v>
-      </c>
-      <c r="I78" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" t="s">
-        <v>361</v>
-      </c>
-      <c r="F79" t="s">
-        <v>470</v>
-      </c>
-      <c r="H79" t="s">
-        <v>361</v>
-      </c>
-      <c r="I79" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>362</v>
-      </c>
-      <c r="F80" t="s">
-        <v>471</v>
-      </c>
-      <c r="H80" t="s">
-        <v>362</v>
-      </c>
-      <c r="I80" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" t="s">
-        <v>363</v>
-      </c>
-      <c r="F81" t="s">
-        <v>472</v>
-      </c>
-      <c r="H81" t="s">
-        <v>363</v>
-      </c>
-      <c r="I81" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" t="s">
-        <v>364</v>
-      </c>
-      <c r="F82" t="s">
-        <v>473</v>
-      </c>
-      <c r="H82" t="s">
-        <v>364</v>
-      </c>
-      <c r="I82" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>365</v>
-      </c>
-      <c r="F83" t="s">
-        <v>474</v>
-      </c>
-      <c r="H83" t="s">
-        <v>365</v>
-      </c>
-      <c r="I83" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" t="s">
-        <v>366</v>
-      </c>
-      <c r="F84" t="s">
-        <v>475</v>
-      </c>
-      <c r="H84" t="s">
-        <v>366</v>
-      </c>
-      <c r="I84" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" t="s">
-        <v>367</v>
-      </c>
-      <c r="F85" t="s">
-        <v>476</v>
-      </c>
-      <c r="H85" t="s">
-        <v>367</v>
-      </c>
-      <c r="I85" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" t="s">
-        <v>368</v>
-      </c>
-      <c r="F86" t="s">
-        <v>477</v>
-      </c>
-      <c r="H86" t="s">
-        <v>368</v>
-      </c>
-      <c r="I86" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" t="s">
-        <v>369</v>
-      </c>
-      <c r="F87" t="s">
-        <v>478</v>
-      </c>
-      <c r="H87" t="s">
-        <v>369</v>
-      </c>
-      <c r="I87" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" t="s">
-        <v>479</v>
-      </c>
-      <c r="H88" t="s">
-        <v>370</v>
-      </c>
-      <c r="I88" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" t="s">
-        <v>371</v>
-      </c>
-      <c r="F89" t="s">
-        <v>480</v>
-      </c>
-      <c r="H89" t="s">
-        <v>371</v>
-      </c>
-      <c r="I89" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" t="s">
-        <v>372</v>
-      </c>
-      <c r="F90" t="s">
-        <v>481</v>
-      </c>
-      <c r="H90" t="s">
-        <v>372</v>
-      </c>
-      <c r="I90" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" t="s">
-        <v>373</v>
-      </c>
-      <c r="F91" t="s">
-        <v>482</v>
-      </c>
-      <c r="H91" t="s">
-        <v>373</v>
-      </c>
-      <c r="I91" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" t="s">
-        <v>374</v>
-      </c>
-      <c r="F92" t="s">
-        <v>483</v>
-      </c>
-      <c r="H92" t="s">
-        <v>374</v>
-      </c>
-      <c r="I92" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>127</v>
-      </c>
-      <c r="D93" t="s">
-        <v>375</v>
-      </c>
-      <c r="F93" t="s">
-        <v>484</v>
-      </c>
-      <c r="H93" t="s">
-        <v>375</v>
-      </c>
-      <c r="I93" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" t="s">
-        <v>376</v>
-      </c>
-      <c r="F94" t="s">
-        <v>485</v>
-      </c>
-      <c r="H94" t="s">
-        <v>376</v>
-      </c>
-      <c r="I94" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" t="s">
-        <v>377</v>
-      </c>
-      <c r="F95" t="s">
-        <v>486</v>
-      </c>
-      <c r="H95" t="s">
-        <v>377</v>
-      </c>
-      <c r="I95" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" t="s">
-        <v>378</v>
-      </c>
-      <c r="F96" t="s">
-        <v>487</v>
-      </c>
-      <c r="H96" t="s">
-        <v>378</v>
-      </c>
-      <c r="I96" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" t="s">
-        <v>379</v>
-      </c>
-      <c r="F97" t="s">
-        <v>488</v>
-      </c>
-      <c r="H97" t="s">
-        <v>379</v>
-      </c>
-      <c r="I97" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" t="s">
-        <v>380</v>
-      </c>
-      <c r="F98" t="s">
-        <v>489</v>
-      </c>
-      <c r="H98" t="s">
-        <v>380</v>
-      </c>
-      <c r="I98" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" t="s">
-        <v>381</v>
-      </c>
-      <c r="F99" t="s">
-        <v>490</v>
-      </c>
-      <c r="H99" t="s">
-        <v>381</v>
-      </c>
-      <c r="I99" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" t="s">
-        <v>382</v>
-      </c>
-      <c r="F100" t="s">
-        <v>491</v>
-      </c>
-      <c r="H100" t="s">
-        <v>382</v>
-      </c>
-      <c r="I100" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" t="s">
-        <v>383</v>
-      </c>
-      <c r="F101" t="s">
-        <v>492</v>
-      </c>
-      <c r="H101" t="s">
-        <v>383</v>
-      </c>
-      <c r="I101" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" t="s">
-        <v>384</v>
-      </c>
-      <c r="F102" t="s">
-        <v>493</v>
-      </c>
-      <c r="H102" t="s">
-        <v>384</v>
-      </c>
-      <c r="I102" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="s">
-        <v>385</v>
-      </c>
-      <c r="F103" t="s">
-        <v>494</v>
-      </c>
-      <c r="H103" t="s">
-        <v>385</v>
-      </c>
-      <c r="I103" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>138</v>
-      </c>
-      <c r="D104" t="s">
-        <v>386</v>
-      </c>
-      <c r="F104" t="s">
-        <v>495</v>
-      </c>
-      <c r="H104" t="s">
-        <v>386</v>
-      </c>
-      <c r="I104" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>139</v>
-      </c>
-      <c r="D105" t="s">
-        <v>387</v>
-      </c>
-      <c r="F105" t="s">
-        <v>496</v>
-      </c>
-      <c r="H105" t="s">
-        <v>387</v>
-      </c>
-      <c r="I105" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
         <v>140</v>
-      </c>
-      <c r="D106" t="s">
-        <v>388</v>
-      </c>
-      <c r="F106" t="s">
-        <v>497</v>
-      </c>
-      <c r="H106" t="s">
-        <v>388</v>
-      </c>
-      <c r="I106" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
-        <v>141</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" t="s">
+        <v>388</v>
+      </c>
+      <c r="F108" t="s">
+        <v>498</v>
+      </c>
+      <c r="H108" t="s">
+        <v>388</v>
+      </c>
+      <c r="I108" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>142</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>389</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>499</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H109" t="s">
         <v>389</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I109" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110" t="s">
+        <v>500</v>
+      </c>
+      <c r="H110" t="s">
+        <v>390</v>
+      </c>
+      <c r="I110" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>143</v>
-      </c>
-      <c r="D109" t="s">
-        <v>390</v>
-      </c>
-      <c r="F109" t="s">
-        <v>500</v>
-      </c>
-      <c r="H109" t="s">
-        <v>390</v>
-      </c>
-      <c r="I109" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C110" t="s">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>144</v>
       </c>
-      <c r="D110" t="s">
-        <v>391</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>501</v>
       </c>
-      <c r="H110" t="s">
-        <v>391</v>
-      </c>
-      <c r="I110" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>145</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
         <v>146</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
         <v>147</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
         <v>148</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
         <v>149</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F116" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
         <v>150</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
         <v>151</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F118" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
         <v>152</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
         <v>153</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
         <v>154</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
         <v>155</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
         <v>156</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F123" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C123" t="s">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
         <v>157</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
         <v>158</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
         <v>159</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C126" t="s">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
         <v>160</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
         <v>161</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
         <v>162</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
         <v>163</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
         <v>164</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
         <v>165</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
         <v>166</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
         <v>167</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
         <v>168</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
         <v>169</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
         <v>170</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F137" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
         <v>171</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
         <v>172</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F139" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
         <v>173</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
         <v>174</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
         <v>175</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
         <v>176</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
         <v>177</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
         <v>178</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
         <v>179</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
         <v>180</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
         <v>181</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
         <v>182</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
         <v>183</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
         <v>184</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F151" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
         <v>185</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F152" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
         <v>186</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
         <v>187</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
         <v>188</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F155" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
         <v>189</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F156" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
         <v>190</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
         <v>191</v>
-      </c>
-      <c r="F157" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
-        <v>192</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
+        <v>192</v>
+      </c>
+      <c r="F159" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
         <v>193</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F160" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
         <v>194</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F161" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
         <v>195</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
         <v>196</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
         <v>197</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F164" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
         <v>198</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F165" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C165" t="s">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
         <v>199</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F166" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
         <v>200</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
         <v>201</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C168" t="s">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
         <v>202</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C169" t="s">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
         <v>203</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C170" t="s">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
         <v>204</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
         <v>205</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F172" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C172" t="s">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
         <v>206</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
         <v>207</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
         <v>208</v>
       </c>
-      <c r="F174" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C176" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\OneDrive\Desktop\Openbb\OpenBBTerminal\portfolio\holdings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CE396-4BA4-4815-BEA7-AF44D8C0ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DFC35C-DDCB-CD43-8679-34D3E11E10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39855" yWindow="5070" windowWidth="17280" windowHeight="8880" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="581">
   <si>
     <t>Country</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>Premium</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>Deposit</t>
   </si>
   <si>
     <t>Investment</t>
@@ -1898,7 +1892,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2210,30 +2204,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D6F62-AF81-9E4D-96B0-03BD76BF955E}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="12.296875" customWidth="1"/>
-    <col min="12" max="12" width="21.19921875" customWidth="1"/>
-    <col min="13" max="13" width="14.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>26</v>
@@ -2248,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>22</v>
@@ -2263,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>24</v>
@@ -2272,64 +2266,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>40301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Unknown</v>
+        <v>North America</v>
       </c>
       <c r="H2" s="5">
-        <v>60850</v>
+        <v>265.3</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5">
-        <f>H2*I2</f>
-        <v>60850</v>
+        <f>H2*I2-J2</f>
+        <v>525.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>40301</v>
+        <v>40365</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>148</v>
@@ -2342,20 +2337,20 @@
         <v>North America</v>
       </c>
       <c r="H3" s="5">
-        <v>265.3</v>
+        <v>110.06</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="5">
-        <f>H3*I3-J3</f>
-        <v>525.6</v>
+        <f t="shared" ref="L3:L40" si="0">H3*I3-J3</f>
+        <v>547.29999999999995</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>25</v>
@@ -2365,21 +2360,21 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>40365</v>
+        <v>40761</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -2389,20 +2384,20 @@
         <v>North America</v>
       </c>
       <c r="H4" s="5">
-        <v>110.06</v>
+        <v>12.61</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L41" si="0">H4*I4-J4</f>
-        <v>547.29999999999995</v>
+        <f t="shared" si="0"/>
+        <v>36.83</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>25</v>
@@ -2412,21 +2407,21 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>40761</v>
+        <v>40889</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -2436,20 +2431,20 @@
         <v>North America</v>
       </c>
       <c r="H5" s="5">
-        <v>12.61</v>
+        <v>18.02</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="0"/>
-        <v>36.83</v>
+        <v>90.1</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>25</v>
@@ -2457,46 +2452,46 @@
       <c r="N5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>40889</v>
+        <v>40942</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IF(F6="","",_xlfn.IFNA(VLOOKUP($F6,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H6" s="5">
-        <v>18.02</v>
+        <v>59.17</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="0"/>
-        <v>90.1</v>
+        <v>414.19</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>25</v>
@@ -2506,44 +2501,44 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>40942</v>
+        <v>41033</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>229</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H7" s="5">
-        <v>59.17</v>
+        <v>27.95</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>414.19</v>
+        <v>83.85</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>25</v>
@@ -2551,36 +2546,35 @@
       <c r="N7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>41033</v>
+        <v>41125</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
+        <v>279</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H8" s="5">
-        <v>27.95</v>
+        <v>14.24</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -2590,7 +2584,7 @@
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>83.85</v>
+        <v>712</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>25</v>
@@ -2599,44 +2593,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>41125</v>
+        <v>41194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H9" s="5">
-        <v>14.24</v>
+        <v>63.39</v>
       </c>
       <c r="I9" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>712</v>
+        <v>370.34000000000003</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>25</v>
@@ -2645,21 +2639,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>41194</v>
+        <v>41308</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -2669,10 +2663,10 @@
         <v>North America</v>
       </c>
       <c r="H10" s="5">
-        <v>63.39</v>
+        <v>45.98</v>
       </c>
       <c r="I10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="5">
         <v>10</v>
@@ -2682,7 +2676,7 @@
       </c>
       <c r="L10" s="5">
         <f t="shared" si="0"/>
-        <v>370.34000000000003</v>
+        <v>173.92</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>25</v>
@@ -2691,21 +2685,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>41308</v>
+        <v>41337</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -2715,20 +2709,20 @@
         <v>North America</v>
       </c>
       <c r="H11" s="5">
-        <v>45.98</v>
+        <v>410.75</v>
       </c>
       <c r="I11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="0"/>
-        <v>173.92</v>
+        <v>310.75</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>25</v>
@@ -2737,18 +2731,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>41337</v>
+        <v>41494</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>148</v>
@@ -2761,20 +2755,20 @@
         <v>North America</v>
       </c>
       <c r="H12" s="5">
-        <v>410.75</v>
+        <v>295.74</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="0"/>
-        <v>310.75</v>
+        <v>293.74</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>25</v>
@@ -2783,21 +2777,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>41494</v>
+        <v>41556</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -2807,20 +2801,20 @@
         <v>North America</v>
       </c>
       <c r="H13" s="5">
-        <v>295.74</v>
+        <v>17.38</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>293.74</v>
+        <v>81.899999999999991</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>25</v>
@@ -2829,21 +2823,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>41556</v>
+        <v>41673</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -2853,20 +2847,20 @@
         <v>North America</v>
       </c>
       <c r="H14" s="5">
-        <v>17.38</v>
+        <v>49.53</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>81.899999999999991</v>
+        <v>243.65</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>25</v>
@@ -2875,44 +2869,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>IF(F15="","",_xlfn.IFNA(VLOOKUP($F15,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H15" s="5">
-        <v>49.53</v>
+        <v>85.16</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>243.65</v>
+        <v>252.48</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>25</v>
@@ -2921,44 +2915,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>41675</v>
+        <v>41981</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>229</v>
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H16" s="5">
-        <v>85.16</v>
+        <v>48.86</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
-        <v>252.48</v>
+        <v>486.6</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>25</v>
@@ -2967,12 +2961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>41981</v>
+        <v>42037</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -2980,31 +2974,31 @@
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>118</v>
+      <c r="E17" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H17" s="5">
-        <v>48.86</v>
+        <v>90.13</v>
       </c>
       <c r="I17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>486.6</v>
+        <v>2702.8999999999996</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>25</v>
@@ -3013,44 +3007,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>42037</v>
+        <v>42071</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H18" s="5">
-        <v>90.13</v>
+        <v>23.45</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>2702.8999999999996</v>
+        <v>463</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>25</v>
@@ -3059,44 +3053,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42071</v>
+        <v>42343</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H19" s="5">
-        <v>23.45</v>
+        <v>68.83</v>
       </c>
       <c r="I19" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>1443.43</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>25</v>
@@ -3105,21 +3099,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>42343</v>
+        <v>42406</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -3129,20 +3123,20 @@
         <v>North America</v>
       </c>
       <c r="H20" s="5">
-        <v>68.83</v>
+        <v>48.49</v>
       </c>
       <c r="I20" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>1443.43</v>
+        <v>92.98</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>25</v>
@@ -3151,21 +3145,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>42406</v>
+        <v>42620</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -3175,20 +3169,20 @@
         <v>North America</v>
       </c>
       <c r="H21" s="5">
-        <v>48.49</v>
+        <v>807.99</v>
       </c>
       <c r="I21" s="3">
         <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>92.98</v>
+        <v>1615.98</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>25</v>
@@ -3197,18 +3191,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>42620</v>
+        <v>42745</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>148</v>
@@ -3221,7 +3215,7 @@
         <v>North America</v>
       </c>
       <c r="H22" s="5">
-        <v>807.99</v>
+        <v>795.9</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -3230,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>1615.98</v>
+        <v>1591.8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>25</v>
@@ -3243,21 +3237,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>42745</v>
+        <v>42865</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -3267,10 +3261,10 @@
         <v>North America</v>
       </c>
       <c r="H23" s="5">
-        <v>795.9</v>
+        <v>38.32</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -3280,7 +3274,7 @@
       </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>1591.8</v>
+        <v>383.2</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>25</v>
@@ -3289,21 +3283,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>42865</v>
+        <v>43077</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -3313,20 +3307,20 @@
         <v>North America</v>
       </c>
       <c r="H24" s="5">
-        <v>38.32</v>
+        <v>85.22</v>
       </c>
       <c r="I24" s="3">
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>383.2</v>
+        <v>848.2</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>25</v>
@@ -3335,44 +3329,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>43077</v>
+        <v>43286</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>IF(F25="","",_xlfn.IFNA(VLOOKUP($F25,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H25" s="5">
-        <v>85.22</v>
+        <v>195.99</v>
       </c>
       <c r="I25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>848.2</v>
+        <v>977.95</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>25</v>
@@ -3381,44 +3375,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>43286</v>
+        <v>43346</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>229</v>
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H26" s="5">
-        <v>195.99</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" s="5">
         <v>2</v>
       </c>
       <c r="K26" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>977.95</v>
+        <v>236.79999999999998</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>25</v>
@@ -3427,12 +3421,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>43346</v>
+        <v>43589</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -3440,31 +3434,31 @@
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
-        <v>118</v>
+      <c r="E27" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H27" s="5">
-        <v>79.599999999999994</v>
+        <v>188.24</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
         <v>2</v>
-      </c>
-      <c r="K27" s="5">
-        <v>4</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>236.79999999999998</v>
+        <v>940.2</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -3473,44 +3467,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>43589</v>
+        <v>43717</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H28" s="5">
-        <v>188.24</v>
+        <v>43.85</v>
       </c>
       <c r="I28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K28" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>940.2</v>
+        <v>125.55000000000001</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>25</v>
@@ -3519,44 +3513,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43717</v>
+        <v>43809</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H29" s="5">
-        <v>43.85</v>
+        <v>104.94</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J29" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>125.55000000000001</v>
+        <v>838.52</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>25</v>
@@ -3565,21 +3559,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>43809</v>
+        <v>43864</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3589,20 +3583,20 @@
         <v>North America</v>
       </c>
       <c r="H30" s="5">
-        <v>104.94</v>
+        <v>106.41</v>
       </c>
       <c r="I30" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>838.52</v>
+        <v>1054.0999999999999</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>25</v>
@@ -3611,21 +3605,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>43864</v>
+        <v>43898</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
@@ -3635,10 +3629,10 @@
         <v>North America</v>
       </c>
       <c r="H31" s="5">
-        <v>106.41</v>
+        <v>1215.79</v>
       </c>
       <c r="I31" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J31" s="5">
         <v>10</v>
@@ -3648,7 +3642,7 @@
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>1054.0999999999999</v>
+        <v>3637.37</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>25</v>
@@ -3657,18 +3651,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>43898</v>
+        <v>43991</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>148</v>
@@ -3681,20 +3675,20 @@
         <v>North America</v>
       </c>
       <c r="H32" s="5">
-        <v>1215.79</v>
+        <v>2600.86</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K32" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>3637.37</v>
+        <v>5001.72</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>25</v>
@@ -3703,21 +3697,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>43991</v>
+        <v>44177</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -3727,20 +3721,20 @@
         <v>North America</v>
       </c>
       <c r="H33" s="5">
-        <v>2600.86</v>
+        <v>121.78</v>
       </c>
       <c r="I33" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="K33" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>5001.72</v>
+        <v>477.12</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>25</v>
@@ -3749,21 +3743,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44177</v>
+        <v>44203</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
@@ -3773,20 +3767,20 @@
         <v>North America</v>
       </c>
       <c r="H34" s="5">
-        <v>121.78</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="I34" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J34" s="5">
         <v>10</v>
       </c>
       <c r="K34" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>477.12</v>
+        <v>2886</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>25</v>
@@ -3795,44 +3789,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44203</v>
+        <v>44322</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>IF(F35="","",_xlfn.IFNA(VLOOKUP($F35,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H35" s="5">
-        <v>144.80000000000001</v>
+        <v>644.34</v>
       </c>
       <c r="I35" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="5">
         <v>10</v>
       </c>
       <c r="K35" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>2886</v>
+        <v>19320.2</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>25</v>
@@ -3841,44 +3835,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44322</v>
+        <v>44558</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>229</v>
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H36" s="5">
-        <v>644.34</v>
+        <v>166.42</v>
       </c>
       <c r="I36" s="3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J36" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K36" s="5">
         <v>3</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
-        <v>19320.2</v>
+        <v>2143.46</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>25</v>
@@ -3887,12 +3881,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44558</v>
+        <v>44594</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>27</v>
@@ -3900,31 +3894,31 @@
       <c r="D37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
-        <v>118</v>
+      <c r="E37" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H37" s="5">
-        <v>166.42</v>
+        <v>122.88</v>
       </c>
       <c r="I37" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J37" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>2143.46</v>
+        <v>3686.3999999999996</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>25</v>
@@ -3933,31 +3927,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44594</v>
+        <v>44624</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H38" s="5">
-        <v>122.88</v>
+        <v>105.06</v>
       </c>
       <c r="I38" s="3">
         <v>30</v>
@@ -3966,11 +3960,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>3686.3999999999996</v>
+        <v>3151.8</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>25</v>
@@ -3979,44 +3973,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>44624</v>
+        <v>44663</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H39" s="5">
-        <v>105.06</v>
+        <v>137.27000000000001</v>
       </c>
       <c r="I39" s="3">
+        <v>10</v>
+      </c>
+      <c r="J39" s="5">
         <v>30</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
       <c r="K39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="0"/>
-        <v>3151.8</v>
+        <v>1342.7</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>25</v>
@@ -4025,21 +4019,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>44663</v>
+        <v>44683</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
@@ -4049,20 +4043,20 @@
         <v>North America</v>
       </c>
       <c r="H40" s="5">
-        <v>137.27000000000001</v>
+        <v>115.76</v>
       </c>
       <c r="I40" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J40" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="0"/>
-        <v>1342.7</v>
+        <v>1233.3600000000001</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>25</v>
@@ -4071,54 +4065,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="str">
-        <f>IF(F41="","",_xlfn.IFNA(VLOOKUP($F41,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H41" s="5">
-        <v>115.76</v>
-      </c>
-      <c r="I41" s="3">
-        <v>11</v>
-      </c>
-      <c r="J41" s="5">
-        <v>40</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="0"/>
-        <v>1233.3600000000001</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H44" s="6"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H43" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4175,2832 +4123,2832 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" t="s">
         <v>577</v>
       </c>
-      <c r="F3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I3" t="s">
-        <v>576</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>564</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" t="s">
-        <v>578</v>
-      </c>
-      <c r="F4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>286</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>579</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>395</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>286</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" t="s">
-        <v>580</v>
-      </c>
-      <c r="F6" t="s">
-        <v>396</v>
-      </c>
-      <c r="H6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I6" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" t="s">
-        <v>581</v>
-      </c>
-      <c r="F7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" t="s">
+        <v>298</v>
+      </c>
+      <c r="I19" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" t="s">
+        <v>408</v>
+      </c>
+      <c r="H20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I20" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+      <c r="H21" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>399</v>
-      </c>
-      <c r="H9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" t="s">
+        <v>301</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" t="s">
+        <v>302</v>
+      </c>
+      <c r="I23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" t="s">
+        <v>413</v>
+      </c>
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" t="s">
+        <v>307</v>
+      </c>
+      <c r="I28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" t="s">
+        <v>417</v>
+      </c>
+      <c r="H29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" t="s">
+        <v>418</v>
+      </c>
+      <c r="H30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H31" t="s">
+        <v>310</v>
+      </c>
+      <c r="I31" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>312</v>
+      </c>
+      <c r="F33" t="s">
+        <v>421</v>
+      </c>
+      <c r="H33" t="s">
+        <v>312</v>
+      </c>
+      <c r="I33" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>313</v>
+      </c>
+      <c r="F34" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" t="s">
+        <v>313</v>
+      </c>
+      <c r="I34" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" t="s">
-        <v>400</v>
-      </c>
-      <c r="H10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H35" t="s">
+        <v>314</v>
+      </c>
+      <c r="I35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" t="s">
+        <v>424</v>
+      </c>
+      <c r="H36" t="s">
+        <v>315</v>
+      </c>
+      <c r="I36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" t="s">
+        <v>425</v>
+      </c>
+      <c r="H37" t="s">
+        <v>316</v>
+      </c>
+      <c r="I37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38" t="s">
+        <v>317</v>
+      </c>
+      <c r="I38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" t="s">
+        <v>318</v>
+      </c>
+      <c r="I39" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" t="s">
+        <v>319</v>
+      </c>
+      <c r="I40" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" t="s">
+        <v>429</v>
+      </c>
+      <c r="H41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F42" t="s">
+        <v>430</v>
+      </c>
+      <c r="H42" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H11" t="s">
-        <v>292</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
+      <c r="F43" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" t="s">
+        <v>322</v>
+      </c>
+      <c r="I43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>323</v>
+      </c>
+      <c r="F44" t="s">
+        <v>432</v>
+      </c>
+      <c r="H44" t="s">
+        <v>323</v>
+      </c>
+      <c r="I44" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>324</v>
+      </c>
+      <c r="F45" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" t="s">
+        <v>434</v>
+      </c>
+      <c r="H46" t="s">
+        <v>325</v>
+      </c>
+      <c r="I46" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" t="s">
+        <v>435</v>
+      </c>
+      <c r="H47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" t="s">
+        <v>436</v>
+      </c>
+      <c r="H48" t="s">
+        <v>327</v>
+      </c>
+      <c r="I48" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="H49" t="s">
+        <v>328</v>
+      </c>
+      <c r="I49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" t="s">
+        <v>438</v>
+      </c>
+      <c r="H50" t="s">
+        <v>329</v>
+      </c>
+      <c r="I50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" t="s">
+        <v>439</v>
+      </c>
+      <c r="H51" t="s">
+        <v>330</v>
+      </c>
+      <c r="I51" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="H52" t="s">
+        <v>331</v>
+      </c>
+      <c r="I52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="H53" t="s">
+        <v>332</v>
+      </c>
+      <c r="I53" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>333</v>
+      </c>
+      <c r="F54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" t="s">
+        <v>333</v>
+      </c>
+      <c r="I54" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="H55" t="s">
+        <v>334</v>
+      </c>
+      <c r="I55" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="F56" t="s">
+        <v>444</v>
+      </c>
+      <c r="H56" t="s">
+        <v>335</v>
+      </c>
+      <c r="I56" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>336</v>
+      </c>
+      <c r="F57" t="s">
+        <v>445</v>
+      </c>
+      <c r="H57" t="s">
+        <v>336</v>
+      </c>
+      <c r="I57" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>337</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="H58" t="s">
+        <v>337</v>
+      </c>
+      <c r="I58" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" t="s">
+        <v>447</v>
+      </c>
+      <c r="H59" t="s">
+        <v>338</v>
+      </c>
+      <c r="I59" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>339</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="H60" t="s">
+        <v>339</v>
+      </c>
+      <c r="I60" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" t="s">
+        <v>449</v>
+      </c>
+      <c r="H61" t="s">
+        <v>340</v>
+      </c>
+      <c r="I61" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" t="s">
+        <v>450</v>
+      </c>
+      <c r="H62" t="s">
+        <v>341</v>
+      </c>
+      <c r="I62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>342</v>
+      </c>
+      <c r="F63" t="s">
+        <v>451</v>
+      </c>
+      <c r="H63" t="s">
+        <v>342</v>
+      </c>
+      <c r="I63" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H64" t="s">
+        <v>343</v>
+      </c>
+      <c r="I64" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>344</v>
+      </c>
+      <c r="F65" t="s">
+        <v>453</v>
+      </c>
+      <c r="H65" t="s">
+        <v>344</v>
+      </c>
+      <c r="I65" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="H66" t="s">
+        <v>345</v>
+      </c>
+      <c r="I66" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" t="s">
+        <v>455</v>
+      </c>
+      <c r="H67" t="s">
+        <v>346</v>
+      </c>
+      <c r="I67" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="H68" t="s">
+        <v>347</v>
+      </c>
+      <c r="I68" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H13" t="s">
-        <v>294</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>348</v>
+      </c>
+      <c r="F69" t="s">
+        <v>457</v>
+      </c>
+      <c r="H69" t="s">
+        <v>348</v>
+      </c>
+      <c r="I69" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" t="s">
+        <v>458</v>
+      </c>
+      <c r="H70" t="s">
+        <v>349</v>
+      </c>
+      <c r="I70" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="F71" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" t="s">
+        <v>460</v>
+      </c>
+      <c r="H72" t="s">
+        <v>351</v>
+      </c>
+      <c r="I72" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>295</v>
-      </c>
-      <c r="F14" t="s">
-        <v>404</v>
-      </c>
-      <c r="H14" t="s">
-        <v>295</v>
-      </c>
-      <c r="I14" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>405</v>
-      </c>
-      <c r="H15" t="s">
-        <v>296</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>352</v>
+      </c>
+      <c r="F73" t="s">
+        <v>461</v>
+      </c>
+      <c r="H73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" t="s">
+        <v>353</v>
+      </c>
+      <c r="F74" t="s">
+        <v>462</v>
+      </c>
+      <c r="H74" t="s">
+        <v>353</v>
+      </c>
+      <c r="I74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" t="s">
+        <v>463</v>
+      </c>
+      <c r="H75" t="s">
+        <v>354</v>
+      </c>
+      <c r="I75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76" t="s">
+        <v>464</v>
+      </c>
+      <c r="H76" t="s">
+        <v>355</v>
+      </c>
+      <c r="I76" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" t="s">
+        <v>465</v>
+      </c>
+      <c r="H77" t="s">
+        <v>356</v>
+      </c>
+      <c r="I77" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>357</v>
+      </c>
+      <c r="F78" t="s">
+        <v>466</v>
+      </c>
+      <c r="H78" t="s">
+        <v>357</v>
+      </c>
+      <c r="I78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>358</v>
+      </c>
+      <c r="F79" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" t="s">
+        <v>358</v>
+      </c>
+      <c r="I79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>359</v>
+      </c>
+      <c r="F80" t="s">
+        <v>468</v>
+      </c>
+      <c r="H80" t="s">
+        <v>359</v>
+      </c>
+      <c r="I80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>360</v>
+      </c>
+      <c r="F81" t="s">
+        <v>469</v>
+      </c>
+      <c r="H81" t="s">
+        <v>360</v>
+      </c>
+      <c r="I81" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>361</v>
+      </c>
+      <c r="F82" t="s">
+        <v>470</v>
+      </c>
+      <c r="H82" t="s">
+        <v>361</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" t="s">
+        <v>362</v>
+      </c>
+      <c r="F83" t="s">
+        <v>471</v>
+      </c>
+      <c r="H83" t="s">
+        <v>362</v>
+      </c>
+      <c r="I83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" t="s">
+        <v>363</v>
+      </c>
+      <c r="F84" t="s">
+        <v>472</v>
+      </c>
+      <c r="H84" t="s">
+        <v>363</v>
+      </c>
+      <c r="I84" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>473</v>
+      </c>
+      <c r="H85" t="s">
+        <v>364</v>
+      </c>
+      <c r="I85" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F16" t="s">
-        <v>406</v>
-      </c>
-      <c r="H16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I16" t="s">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" t="s">
+        <v>474</v>
+      </c>
+      <c r="H86" t="s">
+        <v>365</v>
+      </c>
+      <c r="I86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>366</v>
+      </c>
+      <c r="F87" t="s">
+        <v>475</v>
+      </c>
+      <c r="H87" t="s">
+        <v>366</v>
+      </c>
+      <c r="I87" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" t="s">
+        <v>476</v>
+      </c>
+      <c r="H88" t="s">
+        <v>367</v>
+      </c>
+      <c r="I88" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F17" t="s">
-        <v>407</v>
-      </c>
-      <c r="H17" t="s">
-        <v>298</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" t="s">
+        <v>368</v>
+      </c>
+      <c r="F89" t="s">
+        <v>477</v>
+      </c>
+      <c r="H89" t="s">
+        <v>368</v>
+      </c>
+      <c r="I89" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" t="s">
+        <v>478</v>
+      </c>
+      <c r="H90" t="s">
+        <v>369</v>
+      </c>
+      <c r="I90" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" t="s">
-        <v>408</v>
-      </c>
-      <c r="H18" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" t="s">
+        <v>479</v>
+      </c>
+      <c r="H91" t="s">
+        <v>370</v>
+      </c>
+      <c r="I91" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" t="s">
+        <v>480</v>
+      </c>
+      <c r="H92" t="s">
+        <v>371</v>
+      </c>
+      <c r="I92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" t="s">
+        <v>372</v>
+      </c>
+      <c r="F93" t="s">
+        <v>481</v>
+      </c>
+      <c r="H93" t="s">
+        <v>372</v>
+      </c>
+      <c r="I93" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" t="s">
+        <v>482</v>
+      </c>
+      <c r="H94" t="s">
+        <v>373</v>
+      </c>
+      <c r="I94" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" t="s">
+        <v>374</v>
+      </c>
+      <c r="F95" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" t="s">
+        <v>374</v>
+      </c>
+      <c r="I95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" t="s">
-        <v>410</v>
-      </c>
-      <c r="H20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I20" t="s">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96" t="s">
+        <v>484</v>
+      </c>
+      <c r="H96" t="s">
+        <v>375</v>
+      </c>
+      <c r="I96" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
+        <v>376</v>
+      </c>
+      <c r="F97" t="s">
+        <v>485</v>
+      </c>
+      <c r="H97" t="s">
+        <v>376</v>
+      </c>
+      <c r="I97" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" t="s">
+        <v>486</v>
+      </c>
+      <c r="H98" t="s">
+        <v>377</v>
+      </c>
+      <c r="I98" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="F99" t="s">
+        <v>487</v>
+      </c>
+      <c r="H99" t="s">
+        <v>378</v>
+      </c>
+      <c r="I99" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" t="s">
+        <v>379</v>
+      </c>
+      <c r="F100" t="s">
+        <v>488</v>
+      </c>
+      <c r="H100" t="s">
+        <v>379</v>
+      </c>
+      <c r="I100" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" t="s">
+        <v>380</v>
+      </c>
+      <c r="F101" t="s">
+        <v>489</v>
+      </c>
+      <c r="H101" t="s">
+        <v>380</v>
+      </c>
+      <c r="I101" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" t="s">
+        <v>381</v>
+      </c>
+      <c r="F102" t="s">
+        <v>490</v>
+      </c>
+      <c r="H102" t="s">
+        <v>381</v>
+      </c>
+      <c r="I102" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" t="s">
+        <v>382</v>
+      </c>
+      <c r="F103" t="s">
+        <v>491</v>
+      </c>
+      <c r="H103" t="s">
+        <v>382</v>
+      </c>
+      <c r="I103" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" t="s">
-        <v>411</v>
-      </c>
-      <c r="H21" t="s">
-        <v>302</v>
-      </c>
-      <c r="I21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-      <c r="F22" t="s">
-        <v>412</v>
-      </c>
-      <c r="H22" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" s="9" t="s">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" t="s">
+        <v>383</v>
+      </c>
+      <c r="F104" t="s">
+        <v>492</v>
+      </c>
+      <c r="H104" t="s">
+        <v>383</v>
+      </c>
+      <c r="I104" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+      <c r="F105" t="s">
+        <v>493</v>
+      </c>
+      <c r="H105" t="s">
+        <v>384</v>
+      </c>
+      <c r="I105" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" t="s">
-        <v>413</v>
-      </c>
-      <c r="H23" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24" t="s">
-        <v>414</v>
-      </c>
-      <c r="H24" t="s">
-        <v>305</v>
-      </c>
-      <c r="I24" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>306</v>
-      </c>
-      <c r="F25" t="s">
-        <v>415</v>
-      </c>
-      <c r="H25" t="s">
-        <v>306</v>
-      </c>
-      <c r="I25" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" t="s">
-        <v>416</v>
-      </c>
-      <c r="H26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I26" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>308</v>
-      </c>
-      <c r="F27" t="s">
-        <v>417</v>
-      </c>
-      <c r="H27" t="s">
-        <v>308</v>
-      </c>
-      <c r="I27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" t="s">
-        <v>418</v>
-      </c>
-      <c r="H28" t="s">
-        <v>309</v>
-      </c>
-      <c r="I28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H29" t="s">
-        <v>310</v>
-      </c>
-      <c r="I29" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>311</v>
-      </c>
-      <c r="F30" t="s">
-        <v>420</v>
-      </c>
-      <c r="H30" t="s">
-        <v>311</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>312</v>
-      </c>
-      <c r="F31" t="s">
-        <v>421</v>
-      </c>
-      <c r="H31" t="s">
-        <v>312</v>
-      </c>
-      <c r="I31" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32" t="s">
-        <v>422</v>
-      </c>
-      <c r="H32" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" t="s">
-        <v>423</v>
-      </c>
-      <c r="H33" t="s">
-        <v>314</v>
-      </c>
-      <c r="I33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>315</v>
-      </c>
-      <c r="F34" t="s">
-        <v>424</v>
-      </c>
-      <c r="H34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>316</v>
-      </c>
-      <c r="F35" t="s">
-        <v>425</v>
-      </c>
-      <c r="H35" t="s">
-        <v>316</v>
-      </c>
-      <c r="I35" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" t="s">
-        <v>317</v>
-      </c>
-      <c r="F36" t="s">
-        <v>426</v>
-      </c>
-      <c r="H36" t="s">
-        <v>317</v>
-      </c>
-      <c r="I36" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>318</v>
-      </c>
-      <c r="F37" t="s">
-        <v>427</v>
-      </c>
-      <c r="H37" t="s">
-        <v>318</v>
-      </c>
-      <c r="I37" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F38" t="s">
-        <v>428</v>
-      </c>
-      <c r="H38" t="s">
-        <v>319</v>
-      </c>
-      <c r="I38" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>320</v>
-      </c>
-      <c r="F39" t="s">
-        <v>429</v>
-      </c>
-      <c r="H39" t="s">
-        <v>320</v>
-      </c>
-      <c r="I39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" t="s">
-        <v>430</v>
-      </c>
-      <c r="H40" t="s">
-        <v>321</v>
-      </c>
-      <c r="I40" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" t="s">
-        <v>431</v>
-      </c>
-      <c r="H41" t="s">
-        <v>322</v>
-      </c>
-      <c r="I41" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" t="s">
-        <v>432</v>
-      </c>
-      <c r="H42" t="s">
-        <v>323</v>
-      </c>
-      <c r="I42" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F43" t="s">
-        <v>433</v>
-      </c>
-      <c r="H43" t="s">
-        <v>324</v>
-      </c>
-      <c r="I43" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F44" t="s">
-        <v>434</v>
-      </c>
-      <c r="H44" t="s">
-        <v>325</v>
-      </c>
-      <c r="I44" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>326</v>
-      </c>
-      <c r="F45" t="s">
-        <v>435</v>
-      </c>
-      <c r="H45" t="s">
-        <v>326</v>
-      </c>
-      <c r="I45" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" t="s">
-        <v>436</v>
-      </c>
-      <c r="H46" t="s">
-        <v>327</v>
-      </c>
-      <c r="I46" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>328</v>
-      </c>
-      <c r="F47" t="s">
-        <v>437</v>
-      </c>
-      <c r="H47" t="s">
-        <v>328</v>
-      </c>
-      <c r="I47" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>329</v>
-      </c>
-      <c r="F48" t="s">
-        <v>438</v>
-      </c>
-      <c r="H48" t="s">
-        <v>329</v>
-      </c>
-      <c r="I48" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" t="s">
-        <v>439</v>
-      </c>
-      <c r="H49" t="s">
-        <v>330</v>
-      </c>
-      <c r="I49" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>331</v>
-      </c>
-      <c r="F50" t="s">
-        <v>440</v>
-      </c>
-      <c r="H50" t="s">
-        <v>331</v>
-      </c>
-      <c r="I50" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F51" t="s">
-        <v>441</v>
-      </c>
-      <c r="H51" t="s">
-        <v>332</v>
-      </c>
-      <c r="I51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" t="s">
-        <v>333</v>
-      </c>
-      <c r="F52" t="s">
-        <v>442</v>
-      </c>
-      <c r="H52" t="s">
-        <v>333</v>
-      </c>
-      <c r="I52" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>334</v>
-      </c>
-      <c r="F53" t="s">
-        <v>443</v>
-      </c>
-      <c r="H53" t="s">
-        <v>334</v>
-      </c>
-      <c r="I53" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>335</v>
-      </c>
-      <c r="F54" t="s">
-        <v>444</v>
-      </c>
-      <c r="H54" t="s">
-        <v>335</v>
-      </c>
-      <c r="I54" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>336</v>
-      </c>
-      <c r="F55" t="s">
-        <v>445</v>
-      </c>
-      <c r="H55" t="s">
-        <v>336</v>
-      </c>
-      <c r="I55" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>337</v>
-      </c>
-      <c r="F56" t="s">
-        <v>446</v>
-      </c>
-      <c r="H56" t="s">
-        <v>337</v>
-      </c>
-      <c r="I56" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>338</v>
-      </c>
-      <c r="F57" t="s">
-        <v>447</v>
-      </c>
-      <c r="H57" t="s">
-        <v>338</v>
-      </c>
-      <c r="I57" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" t="s">
-        <v>339</v>
-      </c>
-      <c r="F58" t="s">
-        <v>448</v>
-      </c>
-      <c r="H58" t="s">
-        <v>339</v>
-      </c>
-      <c r="I58" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" t="s">
-        <v>340</v>
-      </c>
-      <c r="F59" t="s">
-        <v>449</v>
-      </c>
-      <c r="H59" t="s">
-        <v>340</v>
-      </c>
-      <c r="I59" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" t="s">
-        <v>341</v>
-      </c>
-      <c r="F60" t="s">
-        <v>450</v>
-      </c>
-      <c r="H60" t="s">
-        <v>341</v>
-      </c>
-      <c r="I60" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" t="s">
-        <v>342</v>
-      </c>
-      <c r="F61" t="s">
-        <v>451</v>
-      </c>
-      <c r="H61" t="s">
-        <v>342</v>
-      </c>
-      <c r="I61" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" t="s">
-        <v>343</v>
-      </c>
-      <c r="F62" t="s">
-        <v>452</v>
-      </c>
-      <c r="H62" t="s">
-        <v>343</v>
-      </c>
-      <c r="I62" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" t="s">
-        <v>344</v>
-      </c>
-      <c r="F63" t="s">
-        <v>453</v>
-      </c>
-      <c r="H63" t="s">
-        <v>344</v>
-      </c>
-      <c r="I63" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" t="s">
-        <v>345</v>
-      </c>
-      <c r="F64" t="s">
-        <v>454</v>
-      </c>
-      <c r="H64" t="s">
-        <v>345</v>
-      </c>
-      <c r="I64" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
-        <v>346</v>
-      </c>
-      <c r="F65" t="s">
-        <v>455</v>
-      </c>
-      <c r="H65" t="s">
-        <v>346</v>
-      </c>
-      <c r="I65" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>347</v>
-      </c>
-      <c r="F66" t="s">
-        <v>456</v>
-      </c>
-      <c r="H66" t="s">
-        <v>347</v>
-      </c>
-      <c r="I66" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" t="s">
-        <v>348</v>
-      </c>
-      <c r="F67" t="s">
-        <v>457</v>
-      </c>
-      <c r="H67" t="s">
-        <v>348</v>
-      </c>
-      <c r="I67" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" t="s">
-        <v>349</v>
-      </c>
-      <c r="F68" t="s">
-        <v>458</v>
-      </c>
-      <c r="H68" t="s">
-        <v>349</v>
-      </c>
-      <c r="I68" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" t="s">
-        <v>350</v>
-      </c>
-      <c r="F69" t="s">
-        <v>459</v>
-      </c>
-      <c r="H69" t="s">
-        <v>350</v>
-      </c>
-      <c r="I69" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>351</v>
-      </c>
-      <c r="F70" t="s">
-        <v>460</v>
-      </c>
-      <c r="H70" t="s">
-        <v>351</v>
-      </c>
-      <c r="I70" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" t="s">
-        <v>461</v>
-      </c>
-      <c r="H71" t="s">
-        <v>352</v>
-      </c>
-      <c r="I71" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" t="s">
-        <v>353</v>
-      </c>
-      <c r="F72" t="s">
-        <v>462</v>
-      </c>
-      <c r="H72" t="s">
-        <v>353</v>
-      </c>
-      <c r="I72" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" t="s">
-        <v>354</v>
-      </c>
-      <c r="F73" t="s">
-        <v>463</v>
-      </c>
-      <c r="H73" t="s">
-        <v>354</v>
-      </c>
-      <c r="I73" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>355</v>
-      </c>
-      <c r="F74" t="s">
-        <v>464</v>
-      </c>
-      <c r="H74" t="s">
-        <v>355</v>
-      </c>
-      <c r="I74" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" t="s">
-        <v>356</v>
-      </c>
-      <c r="F75" t="s">
-        <v>465</v>
-      </c>
-      <c r="H75" t="s">
-        <v>356</v>
-      </c>
-      <c r="I75" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" t="s">
-        <v>357</v>
-      </c>
-      <c r="F76" t="s">
-        <v>466</v>
-      </c>
-      <c r="H76" t="s">
-        <v>357</v>
-      </c>
-      <c r="I76" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" t="s">
-        <v>358</v>
-      </c>
-      <c r="F77" t="s">
-        <v>467</v>
-      </c>
-      <c r="H77" t="s">
-        <v>358</v>
-      </c>
-      <c r="I77" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>359</v>
-      </c>
-      <c r="F78" t="s">
-        <v>468</v>
-      </c>
-      <c r="H78" t="s">
-        <v>359</v>
-      </c>
-      <c r="I78" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" t="s">
-        <v>360</v>
-      </c>
-      <c r="F79" t="s">
-        <v>469</v>
-      </c>
-      <c r="H79" t="s">
-        <v>360</v>
-      </c>
-      <c r="I79" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" t="s">
-        <v>361</v>
-      </c>
-      <c r="F80" t="s">
-        <v>470</v>
-      </c>
-      <c r="H80" t="s">
-        <v>361</v>
-      </c>
-      <c r="I80" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" t="s">
-        <v>362</v>
-      </c>
-      <c r="F81" t="s">
-        <v>471</v>
-      </c>
-      <c r="H81" t="s">
-        <v>362</v>
-      </c>
-      <c r="I81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" t="s">
-        <v>363</v>
-      </c>
-      <c r="F82" t="s">
-        <v>472</v>
-      </c>
-      <c r="H82" t="s">
-        <v>363</v>
-      </c>
-      <c r="I82" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" t="s">
-        <v>364</v>
-      </c>
-      <c r="F83" t="s">
-        <v>473</v>
-      </c>
-      <c r="H83" t="s">
-        <v>364</v>
-      </c>
-      <c r="I83" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" t="s">
-        <v>365</v>
-      </c>
-      <c r="F84" t="s">
-        <v>474</v>
-      </c>
-      <c r="H84" t="s">
-        <v>365</v>
-      </c>
-      <c r="I84" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" t="s">
-        <v>366</v>
-      </c>
-      <c r="F85" t="s">
-        <v>475</v>
-      </c>
-      <c r="H85" t="s">
-        <v>366</v>
-      </c>
-      <c r="I85" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" t="s">
-        <v>367</v>
-      </c>
-      <c r="F86" t="s">
-        <v>476</v>
-      </c>
-      <c r="H86" t="s">
-        <v>367</v>
-      </c>
-      <c r="I86" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" t="s">
-        <v>368</v>
-      </c>
-      <c r="F87" t="s">
-        <v>477</v>
-      </c>
-      <c r="H87" t="s">
-        <v>368</v>
-      </c>
-      <c r="I87" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>369</v>
-      </c>
-      <c r="F88" t="s">
-        <v>478</v>
-      </c>
-      <c r="H88" t="s">
-        <v>369</v>
-      </c>
-      <c r="I88" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>370</v>
-      </c>
-      <c r="F89" t="s">
-        <v>479</v>
-      </c>
-      <c r="H89" t="s">
-        <v>370</v>
-      </c>
-      <c r="I89" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" t="s">
-        <v>371</v>
-      </c>
-      <c r="F90" t="s">
-        <v>480</v>
-      </c>
-      <c r="H90" t="s">
-        <v>371</v>
-      </c>
-      <c r="I90" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" t="s">
-        <v>372</v>
-      </c>
-      <c r="F91" t="s">
-        <v>481</v>
-      </c>
-      <c r="H91" t="s">
-        <v>372</v>
-      </c>
-      <c r="I91" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" t="s">
-        <v>373</v>
-      </c>
-      <c r="F92" t="s">
-        <v>482</v>
-      </c>
-      <c r="H92" t="s">
-        <v>373</v>
-      </c>
-      <c r="I92" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F93" t="s">
-        <v>483</v>
-      </c>
-      <c r="H93" t="s">
-        <v>374</v>
-      </c>
-      <c r="I93" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" t="s">
-        <v>375</v>
-      </c>
-      <c r="F94" t="s">
-        <v>484</v>
-      </c>
-      <c r="H94" t="s">
-        <v>375</v>
-      </c>
-      <c r="I94" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" t="s">
-        <v>376</v>
-      </c>
-      <c r="F95" t="s">
-        <v>485</v>
-      </c>
-      <c r="H95" t="s">
-        <v>376</v>
-      </c>
-      <c r="I95" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" t="s">
-        <v>377</v>
-      </c>
-      <c r="F96" t="s">
-        <v>486</v>
-      </c>
-      <c r="H96" t="s">
-        <v>377</v>
-      </c>
-      <c r="I96" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" t="s">
-        <v>378</v>
-      </c>
-      <c r="F97" t="s">
-        <v>487</v>
-      </c>
-      <c r="H97" t="s">
-        <v>378</v>
-      </c>
-      <c r="I97" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" t="s">
-        <v>379</v>
-      </c>
-      <c r="F98" t="s">
-        <v>488</v>
-      </c>
-      <c r="H98" t="s">
-        <v>379</v>
-      </c>
-      <c r="I98" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D99" t="s">
-        <v>380</v>
-      </c>
-      <c r="F99" t="s">
-        <v>489</v>
-      </c>
-      <c r="H99" t="s">
-        <v>380</v>
-      </c>
-      <c r="I99" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" t="s">
-        <v>381</v>
-      </c>
-      <c r="F100" t="s">
-        <v>490</v>
-      </c>
-      <c r="H100" t="s">
-        <v>381</v>
-      </c>
-      <c r="I100" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" t="s">
-        <v>382</v>
-      </c>
-      <c r="F101" t="s">
-        <v>491</v>
-      </c>
-      <c r="H101" t="s">
-        <v>382</v>
-      </c>
-      <c r="I101" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" t="s">
-        <v>383</v>
-      </c>
-      <c r="F102" t="s">
-        <v>492</v>
-      </c>
-      <c r="H102" t="s">
-        <v>383</v>
-      </c>
-      <c r="I102" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" t="s">
-        <v>384</v>
-      </c>
-      <c r="F103" t="s">
-        <v>493</v>
-      </c>
-      <c r="H103" t="s">
-        <v>384</v>
-      </c>
-      <c r="I103" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
         <v>137</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>385</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F106" t="s">
         <v>494</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H106" t="s">
         <v>385</v>
       </c>
-      <c r="I104" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
+      <c r="I106" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
         <v>138</v>
-      </c>
-      <c r="D105" t="s">
-        <v>386</v>
-      </c>
-      <c r="F105" t="s">
-        <v>495</v>
-      </c>
-      <c r="H105" t="s">
-        <v>386</v>
-      </c>
-      <c r="I105" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" t="s">
-        <v>387</v>
-      </c>
-      <c r="F106" t="s">
-        <v>496</v>
-      </c>
-      <c r="H106" t="s">
-        <v>387</v>
-      </c>
-      <c r="I106" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>140</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" t="s">
+        <v>386</v>
+      </c>
+      <c r="F108" t="s">
+        <v>496</v>
+      </c>
+      <c r="H108" t="s">
+        <v>386</v>
+      </c>
+      <c r="I108" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" t="s">
+        <v>387</v>
+      </c>
+      <c r="F109" t="s">
+        <v>497</v>
+      </c>
+      <c r="H109" t="s">
+        <v>387</v>
+      </c>
+      <c r="I109" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
         <v>141</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>388</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F110" t="s">
         <v>498</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H110" t="s">
         <v>388</v>
       </c>
-      <c r="I108" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+      <c r="I110" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
         <v>142</v>
       </c>
-      <c r="D109" t="s">
-        <v>389</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="F111" t="s">
         <v>499</v>
       </c>
-      <c r="H109" t="s">
-        <v>389</v>
-      </c>
-      <c r="I109" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
         <v>143</v>
       </c>
-      <c r="D110" t="s">
-        <v>390</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="F112" t="s">
         <v>500</v>
       </c>
-      <c r="H110" t="s">
-        <v>390</v>
-      </c>
-      <c r="I110" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>144</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F113" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>145</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F114" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
         <v>146</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F115" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
         <v>147</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F116" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
         <v>148</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F117" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
         <v>149</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
         <v>150</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
         <v>151</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
         <v>152</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
         <v>153</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F122" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
         <v>154</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F123" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
         <v>155</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F124" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
         <v>156</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F125" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
         <v>157</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F126" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
         <v>158</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F127" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C126" t="s">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
         <v>159</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F128" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
         <v>160</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F129" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
         <v>161</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F130" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
         <v>162</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F131" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
         <v>163</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F132" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
         <v>164</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F133" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C132" t="s">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
         <v>165</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F134" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C133" t="s">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
         <v>166</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F135" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
         <v>167</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F136" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>168</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F137" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
         <v>169</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F138" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
         <v>170</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F139" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
         <v>171</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F140" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
         <v>172</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F141" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
         <v>173</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F142" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
         <v>174</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
         <v>175</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
         <v>176</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F145" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
         <v>177</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
         <v>178</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F147" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
         <v>179</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F148" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
         <v>180</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F149" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C148" t="s">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
         <v>181</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F150" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C149" t="s">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
         <v>182</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F151" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
         <v>183</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F152" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
         <v>184</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F153" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C152" t="s">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
         <v>185</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F154" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C153" t="s">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>186</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F155" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>187</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F156" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
         <v>188</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F157" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
         <v>189</v>
-      </c>
-      <c r="F156" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
-        <v>190</v>
-      </c>
-      <c r="F157" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
-        <v>191</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
+        <v>190</v>
+      </c>
+      <c r="F159" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>191</v>
+      </c>
+      <c r="F160" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
         <v>192</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F161" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C160" t="s">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
         <v>193</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F162" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C161" t="s">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
         <v>194</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F163" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
         <v>195</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F164" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
         <v>196</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F165" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
         <v>197</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F166" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
         <v>198</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F167" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
         <v>199</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F168" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
         <v>200</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F169" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
         <v>201</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F170" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
         <v>202</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F171" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C170" t="s">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
         <v>203</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F172" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
         <v>204</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F173" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C172" t="s">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
         <v>205</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F174" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
         <v>206</v>
       </c>
-      <c r="F173" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
         <v>207</v>
       </c>
-      <c r="F174" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C175" t="s">
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28485B9D-79A5-094D-8512-EEC910E08045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DFC35C-DDCB-CD43-8679-34D3E11E10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="581">
   <si>
     <t>Country</t>
   </si>
@@ -133,21 +132,12 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
     <t>Premium</t>
   </si>
   <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
     <t>Investment</t>
   </si>
   <si>
@@ -1799,6 +1789,9 @@
   </si>
   <si>
     <t>Middle East</t>
+  </si>
+  <si>
+    <t>Ticker</t>
   </si>
 </sst>
 </file>
@@ -2211,13 +2204,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D6F62-AF81-9E4D-96B0-03BD76BF955E}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
@@ -2234,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>580</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>26</v>
@@ -2249,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>22</v>
@@ -2261,10 +2254,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>24</v>
@@ -2278,62 +2271,63 @@
         <v>40301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Unknown</v>
+        <v>North America</v>
       </c>
       <c r="H2" s="5">
-        <v>60850</v>
+        <v>265.3</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5">
-        <f>H2*I2</f>
-        <v>60850</v>
+        <f>H2*I2-J2</f>
+        <v>525.6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>40301</v>
+        <v>40365</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -2343,20 +2337,20 @@
         <v>North America</v>
       </c>
       <c r="H3" s="5">
-        <v>265.3</v>
+        <v>110.06</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="5">
-        <f>H3*I3-J3</f>
-        <v>525.6</v>
+        <f t="shared" ref="L3:L40" si="0">H3*I3-J3</f>
+        <v>547.29999999999995</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>25</v>
@@ -2368,19 +2362,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>40365</v>
+        <v>40761</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -2390,20 +2384,20 @@
         <v>North America</v>
       </c>
       <c r="H4" s="5">
-        <v>110.06</v>
+        <v>12.61</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L41" si="0">H4*I4-J4</f>
-        <v>547.29999999999995</v>
+        <f t="shared" si="0"/>
+        <v>36.83</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>25</v>
@@ -2415,19 +2409,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>40761</v>
+        <v>40889</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -2437,20 +2431,20 @@
         <v>North America</v>
       </c>
       <c r="H5" s="5">
-        <v>12.61</v>
+        <v>18.02</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="0"/>
-        <v>36.83</v>
+        <v>90.1</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>25</v>
@@ -2458,46 +2452,46 @@
       <c r="N5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>40889</v>
+        <v>40942</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IF(F6="","",_xlfn.IFNA(VLOOKUP($F6,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H6" s="5">
-        <v>18.02</v>
+        <v>59.17</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="0"/>
-        <v>90.1</v>
+        <v>414.19</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>25</v>
@@ -2509,42 +2503,42 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>40942</v>
+        <v>41033</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H7" s="5">
-        <v>59.17</v>
+        <v>27.95</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>414.19</v>
+        <v>83.85</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>25</v>
@@ -2552,36 +2546,35 @@
       <c r="N7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>41033</v>
+        <v>41125</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
+        <v>279</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H8" s="5">
-        <v>27.95</v>
+        <v>14.24</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -2591,7 +2584,7 @@
       </c>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>83.85</v>
+        <v>712</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>25</v>
@@ -2602,42 +2595,42 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>41125</v>
+        <v>41194</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H9" s="5">
-        <v>14.24</v>
+        <v>63.39</v>
       </c>
       <c r="I9" s="3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>712</v>
+        <v>370.34000000000003</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>25</v>
@@ -2648,19 +2641,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>41194</v>
+        <v>41308</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -2670,10 +2663,10 @@
         <v>North America</v>
       </c>
       <c r="H10" s="5">
-        <v>63.39</v>
+        <v>45.98</v>
       </c>
       <c r="I10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="5">
         <v>10</v>
@@ -2683,7 +2676,7 @@
       </c>
       <c r="L10" s="5">
         <f t="shared" si="0"/>
-        <v>370.34000000000003</v>
+        <v>173.92</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>25</v>
@@ -2694,19 +2687,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>41308</v>
+        <v>41337</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -2716,20 +2709,20 @@
         <v>North America</v>
       </c>
       <c r="H11" s="5">
-        <v>45.98</v>
+        <v>410.75</v>
       </c>
       <c r="I11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K11" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="0"/>
-        <v>173.92</v>
+        <v>310.75</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>25</v>
@@ -2740,19 +2733,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>41337</v>
+        <v>41494</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -2762,20 +2755,20 @@
         <v>North America</v>
       </c>
       <c r="H12" s="5">
-        <v>410.75</v>
+        <v>295.74</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="0"/>
-        <v>310.75</v>
+        <v>293.74</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>25</v>
@@ -2786,19 +2779,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>41494</v>
+        <v>41556</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -2808,20 +2801,20 @@
         <v>North America</v>
       </c>
       <c r="H13" s="5">
-        <v>295.74</v>
+        <v>17.38</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="0"/>
-        <v>293.74</v>
+        <v>81.899999999999991</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>25</v>
@@ -2832,19 +2825,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>41556</v>
+        <v>41673</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -2854,20 +2847,20 @@
         <v>North America</v>
       </c>
       <c r="H14" s="5">
-        <v>17.38</v>
+        <v>49.53</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>81.899999999999991</v>
+        <v>243.65</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>25</v>
@@ -2878,42 +2871,42 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>41673</v>
+        <v>41675</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>IF(F15="","",_xlfn.IFNA(VLOOKUP($F15,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H15" s="5">
-        <v>49.53</v>
+        <v>85.16</v>
       </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="0"/>
-        <v>243.65</v>
+        <v>252.48</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>25</v>
@@ -2924,42 +2917,42 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>41675</v>
+        <v>41981</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H16" s="5">
-        <v>85.16</v>
+        <v>48.86</v>
       </c>
       <c r="I16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="0"/>
-        <v>252.48</v>
+        <v>486.6</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>25</v>
@@ -2970,42 +2963,42 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>41981</v>
+        <v>42037</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
-        <v>119</v>
+      <c r="E17" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3" t="str">
         <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H17" s="5">
-        <v>48.86</v>
+        <v>90.13</v>
       </c>
       <c r="I17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="0"/>
-        <v>486.6</v>
+        <v>2702.8999999999996</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>25</v>
@@ -3016,42 +3009,42 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>42037</v>
+        <v>42071</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H18" s="5">
-        <v>90.13</v>
+        <v>23.45</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="0"/>
-        <v>2702.8999999999996</v>
+        <v>463</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>25</v>
@@ -3062,42 +3055,42 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42071</v>
+        <v>42343</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H19" s="5">
-        <v>23.45</v>
+        <v>68.83</v>
       </c>
       <c r="I19" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>1443.43</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>25</v>
@@ -3108,19 +3101,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>42343</v>
+        <v>42406</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -3130,20 +3123,20 @@
         <v>North America</v>
       </c>
       <c r="H20" s="5">
-        <v>68.83</v>
+        <v>48.49</v>
       </c>
       <c r="I20" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>1443.43</v>
+        <v>92.98</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>25</v>
@@ -3154,19 +3147,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>42406</v>
+        <v>42620</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -3176,20 +3169,20 @@
         <v>North America</v>
       </c>
       <c r="H21" s="5">
-        <v>48.49</v>
+        <v>807.99</v>
       </c>
       <c r="I21" s="3">
         <v>2</v>
       </c>
       <c r="J21" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>92.98</v>
+        <v>1615.98</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>25</v>
@@ -3200,19 +3193,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>42620</v>
+        <v>42745</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -3222,7 +3215,7 @@
         <v>North America</v>
       </c>
       <c r="H22" s="5">
-        <v>807.99</v>
+        <v>795.9</v>
       </c>
       <c r="I22" s="3">
         <v>2</v>
@@ -3231,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>1615.98</v>
+        <v>1591.8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>25</v>
@@ -3246,19 +3239,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>42745</v>
+        <v>42865</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -3268,10 +3261,10 @@
         <v>North America</v>
       </c>
       <c r="H23" s="5">
-        <v>795.9</v>
+        <v>38.32</v>
       </c>
       <c r="I23" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -3281,7 +3274,7 @@
       </c>
       <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>1591.8</v>
+        <v>383.2</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>25</v>
@@ -3292,19 +3285,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>42865</v>
+        <v>43077</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -3314,20 +3307,20 @@
         <v>North America</v>
       </c>
       <c r="H24" s="5">
-        <v>38.32</v>
+        <v>85.22</v>
       </c>
       <c r="I24" s="3">
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>383.2</v>
+        <v>848.2</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>25</v>
@@ -3338,42 +3331,42 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>43077</v>
+        <v>43286</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>IF(F25="","",_xlfn.IFNA(VLOOKUP($F25,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H25" s="5">
-        <v>85.22</v>
+        <v>195.99</v>
       </c>
       <c r="I25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>848.2</v>
+        <v>977.95</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>25</v>
@@ -3384,42 +3377,42 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>43286</v>
+        <v>43346</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H26" s="5">
-        <v>195.99</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" s="5">
         <v>2</v>
       </c>
       <c r="K26" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>977.95</v>
+        <v>236.79999999999998</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>25</v>
@@ -3430,42 +3423,42 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>43346</v>
+        <v>43589</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
-        <v>119</v>
+      <c r="E27" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H27" s="5">
-        <v>79.599999999999994</v>
+        <v>188.24</v>
       </c>
       <c r="I27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
         <v>2</v>
-      </c>
-      <c r="K27" s="5">
-        <v>4</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="0"/>
-        <v>236.79999999999998</v>
+        <v>940.2</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>25</v>
@@ -3476,42 +3469,42 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>43589</v>
+        <v>43717</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H28" s="5">
-        <v>188.24</v>
+        <v>43.85</v>
       </c>
       <c r="I28" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K28" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="0"/>
-        <v>940.2</v>
+        <v>125.55000000000001</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>25</v>
@@ -3522,42 +3515,42 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43717</v>
+        <v>43809</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H29" s="5">
-        <v>43.85</v>
+        <v>104.94</v>
       </c>
       <c r="I29" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J29" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>125.55000000000001</v>
+        <v>838.52</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>25</v>
@@ -3568,19 +3561,19 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>43809</v>
+        <v>43864</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3590,20 +3583,20 @@
         <v>North America</v>
       </c>
       <c r="H30" s="5">
-        <v>104.94</v>
+        <v>106.41</v>
       </c>
       <c r="I30" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>838.52</v>
+        <v>1054.0999999999999</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>25</v>
@@ -3614,19 +3607,19 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>43864</v>
+        <v>43898</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
@@ -3636,10 +3629,10 @@
         <v>North America</v>
       </c>
       <c r="H31" s="5">
-        <v>106.41</v>
+        <v>1215.79</v>
       </c>
       <c r="I31" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J31" s="5">
         <v>10</v>
@@ -3649,7 +3642,7 @@
       </c>
       <c r="L31" s="5">
         <f t="shared" si="0"/>
-        <v>1054.0999999999999</v>
+        <v>3637.37</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>25</v>
@@ -3660,19 +3653,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>43898</v>
+        <v>43991</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -3682,20 +3675,20 @@
         <v>North America</v>
       </c>
       <c r="H32" s="5">
-        <v>1215.79</v>
+        <v>2600.86</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="5">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="K32" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="0"/>
-        <v>3637.37</v>
+        <v>5001.72</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>25</v>
@@ -3706,19 +3699,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>43991</v>
+        <v>44177</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -3728,20 +3721,20 @@
         <v>North America</v>
       </c>
       <c r="H33" s="5">
-        <v>2600.86</v>
+        <v>121.78</v>
       </c>
       <c r="I33" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" s="5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="K33" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="0"/>
-        <v>5001.72</v>
+        <v>477.12</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>25</v>
@@ -3752,19 +3745,19 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>44177</v>
+        <v>44203</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3</v>
@@ -3774,20 +3767,20 @@
         <v>North America</v>
       </c>
       <c r="H34" s="5">
-        <v>121.78</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="I34" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J34" s="5">
         <v>10</v>
       </c>
       <c r="K34" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="0"/>
-        <v>477.12</v>
+        <v>2886</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>25</v>
@@ -3798,42 +3791,42 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>44203</v>
+        <v>44322</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>IF(F35="","",_xlfn.IFNA(VLOOKUP($F35,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
+        <v>Europe</v>
       </c>
       <c r="H35" s="5">
-        <v>144.80000000000001</v>
+        <v>644.34</v>
       </c>
       <c r="I35" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="5">
         <v>10</v>
       </c>
       <c r="K35" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="0"/>
-        <v>2886</v>
+        <v>19320.2</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>25</v>
@@ -3844,42 +3837,42 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>44322</v>
+        <v>44558</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Europe</v>
       </c>
       <c r="H36" s="5">
-        <v>644.34</v>
+        <v>166.42</v>
       </c>
       <c r="I36" s="3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J36" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K36" s="5">
         <v>3</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="0"/>
-        <v>19320.2</v>
+        <v>2143.46</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>25</v>
@@ -3890,42 +3883,42 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>44558</v>
+        <v>44594</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
-        <v>119</v>
+      <c r="E37" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
+        <v>Asia</v>
       </c>
       <c r="H37" s="5">
-        <v>166.42</v>
+        <v>122.88</v>
       </c>
       <c r="I37" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J37" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="0"/>
-        <v>2143.46</v>
+        <v>3686.3999999999996</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>25</v>
@@ -3936,29 +3929,29 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>44594</v>
+        <v>44624</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
         <v>Asia</v>
       </c>
       <c r="H38" s="5">
-        <v>122.88</v>
+        <v>105.06</v>
       </c>
       <c r="I38" s="3">
         <v>30</v>
@@ -3967,11 +3960,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="0"/>
-        <v>3686.3999999999996</v>
+        <v>3151.8</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>25</v>
@@ -3982,42 +3975,42 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>44624</v>
+        <v>44663</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
+        <v>North America</v>
       </c>
       <c r="H39" s="5">
-        <v>105.06</v>
+        <v>137.27000000000001</v>
       </c>
       <c r="I39" s="3">
+        <v>10</v>
+      </c>
+      <c r="J39" s="5">
         <v>30</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
       <c r="K39" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="0"/>
-        <v>3151.8</v>
+        <v>1342.7</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>25</v>
@@ -4028,19 +4021,19 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>44663</v>
+        <v>44683</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>3</v>
@@ -4050,20 +4043,20 @@
         <v>North America</v>
       </c>
       <c r="H40" s="5">
-        <v>137.27000000000001</v>
+        <v>115.76</v>
       </c>
       <c r="I40" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J40" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="0"/>
-        <v>1342.7</v>
+        <v>1233.3600000000001</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>25</v>
@@ -4072,54 +4065,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>44683</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="str">
-        <f>IF(F41="","",_xlfn.IFNA(VLOOKUP($F41,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H41" s="5">
-        <v>115.76</v>
-      </c>
-      <c r="I41" s="3">
-        <v>11</v>
-      </c>
-      <c r="J41" s="5">
-        <v>40</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="0"/>
-        <v>1233.3600000000001</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H44" s="6"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H43" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4176,7 +4123,7 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
@@ -4195,2362 +4142,2362 @@
         <v>26</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I18" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I26" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I28" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I29" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I31" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I32" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I33" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I34" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I35" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I36" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I37" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I38" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I39" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F40" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I40" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I41" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F42" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I42" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H43" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I43" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I44" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I46" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I48" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F49" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H49" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I49" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I50" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H51" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I51" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I52" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I54" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F55" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I55" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H56" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I56" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I57" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H58" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I58" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H59" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I59" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I60" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F61" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I61" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H62" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I62" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H63" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I63" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H64" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I64" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F65" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H65" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I65" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I66" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F67" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I67" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I68" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F69" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I69" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I70" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H71" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I71" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F72" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H72" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I72" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F73" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H73" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I73" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F74" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I74" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F75" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H75" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I75" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F76" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I76" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F78" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H78" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I78" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F79" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H79" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I79" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H80" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I80" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H81" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I81" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F82" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H82" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I82" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F83" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H83" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I83" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D84" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F84" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H84" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I84" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F85" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H85" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I85" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F86" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H86" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I86" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H87" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F88" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H88" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I88" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F89" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H89" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I89" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F90" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H90" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I90" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F91" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H91" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I91" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F92" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H92" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I92" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F93" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H93" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I93" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F94" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I94" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F95" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H95" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I95" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H96" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I96" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F97" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H97" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I97" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F98" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H98" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I98" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F99" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H99" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I99" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F100" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H100" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I100" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H101" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I101" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F102" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H102" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I102" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F103" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H103" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I103" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F104" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H104" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I104" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F105" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H105" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I105" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F106" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I106" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F108" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H108" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I108" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F109" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H109" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I109" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F110" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H110" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I110" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F111" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F112" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F113" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F114" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F115" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F116" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F117" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F118" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F119" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F120" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F121" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F122" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F123" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F124" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F125" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F126" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F127" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F128" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F129" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F130" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F131" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F132" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F133" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F134" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F135" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F136" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F137" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F138" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F139" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F140" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F141" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F142" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F143" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F144" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F145" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F146" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F147" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F148" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F149" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F150" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F151" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F152" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F153" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F154" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F155" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F156" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F157" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
@@ -6558,210 +6505,210 @@
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F159" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F160" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F161" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F162" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F163" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F164" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F165" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F166" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F167" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F168" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F169" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F170" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F171" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F172" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F173" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F174" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
@@ -6771,37 +6718,37 @@
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
@@ -6811,197 +6758,197 @@
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Terminal/portfolio/holdings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Test/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DFC35C-DDCB-CD43-8679-34D3E11E10ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A78AF-E94A-3740-A727-0522EDD2CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Sectors">Orderbook!$D$2:$D$1048576</definedName>
     <definedName name="Types">Orderbook!$C$2:$C$1048576</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="581">
   <si>
     <t>Country</t>
   </si>
@@ -1802,7 +1802,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1853,6 +1853,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1881,13 +1888,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2207,7 +2214,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,1854 +2230,1815 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="10">
         <v>40301</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>IF(F2="","",_xlfn.IFNA(VLOOKUP($F2,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H2" s="5">
-        <v>265.3</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="G2" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="9">
+        <v>13.27</v>
+      </c>
+      <c r="I2" s="9">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="9">
         <v>5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="9">
         <v>6</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="9">
         <f>H2*I2-J2</f>
-        <v>525.6</v>
-      </c>
-      <c r="M2" s="3" t="s">
+        <v>21.54</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="10">
         <v>40365</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f>IF(F3="","",_xlfn.IFNA(VLOOKUP($F3,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H3" s="5">
-        <v>110.06</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="G3" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="I3" s="9">
         <v>5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="9">
         <v>3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="9">
         <f t="shared" ref="L3:L40" si="0">H3*I3-J3</f>
-        <v>547.29999999999995</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <v>24.5</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="10">
         <v>40761</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>IF(F4="","",_xlfn.IFNA(VLOOKUP($F4,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" s="9">
         <v>12.61</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="9">
         <v>0</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>36.83</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>40889</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f>IF(F5="","",_xlfn.IFNA(VLOOKUP($F5,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" s="9">
         <v>18.02</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="9">
         <v>2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>90.1</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>40942</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f>IF(F6="","",_xlfn.IFNA(VLOOKUP($F6,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="9">
         <v>59.17</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="9">
         <f t="shared" si="0"/>
         <v>414.19</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>41033</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f>IF(F7="","",_xlfn.IFNA(VLOOKUP($F7,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H7" s="9">
         <v>27.95</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="9">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>83.85</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>41125</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f>IF(F8="","",_xlfn.IFNA(VLOOKUP($F8,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H8" s="9">
         <v>14.24</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <v>50</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="9">
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="9">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>41194</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f>IF(F9="","",_xlfn.IFNA(VLOOKUP($F9,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H9" s="9">
         <v>63.39</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>6</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="9">
         <v>10</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="9">
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>370.34000000000003</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="10">
         <v>41308</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f>IF(F10="","",_xlfn.IFNA(VLOOKUP($F10,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H10" s="9">
         <v>45.98</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>4</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="9">
         <v>10</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="9">
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
         <v>173.92</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="10">
         <v>41337</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f>IF(F11="","",_xlfn.IFNA(VLOOKUP($F11,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H11" s="5">
-        <v>410.75</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H11" s="9">
+        <v>20.54</v>
+      </c>
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="9">
         <v>100</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="9">
         <v>2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="9">
         <f t="shared" si="0"/>
-        <v>310.75</v>
-      </c>
-      <c r="M11" s="3" t="s">
+        <v>-79.460000000000008</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="10">
         <v>41494</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f>IF(F12="","",_xlfn.IFNA(VLOOKUP($F12,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H12" s="5">
-        <v>295.74</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H12" s="9">
+        <v>14.79</v>
+      </c>
+      <c r="I12" s="9">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="9">
         <v>2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="9">
         <v>3</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="9">
         <f t="shared" si="0"/>
-        <v>293.74</v>
-      </c>
-      <c r="M12" s="3" t="s">
+        <v>12.79</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="10">
         <v>41556</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="3" t="str">
-        <f>IF(F13="","",_xlfn.IFNA(VLOOKUP($F13,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H13" s="9">
         <v>17.38</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>5</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="9">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="9">
         <v>5</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="9">
         <f t="shared" si="0"/>
         <v>81.899999999999991</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="10">
         <v>41673</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <f>IF(F14="","",_xlfn.IFNA(VLOOKUP($F14,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H14" s="9">
         <v>49.53</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="9">
         <v>5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9">
         <v>4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="9">
         <v>0</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="9">
         <f t="shared" si="0"/>
         <v>243.65</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>41675</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <f>IF(F15="","",_xlfn.IFNA(VLOOKUP($F15,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H15" s="9">
         <v>85.16</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="9">
         <v>0</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="9">
         <f t="shared" si="0"/>
         <v>252.48</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>41981</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="3" t="str">
-        <f>IF(F16="","",_xlfn.IFNA(VLOOKUP($F16,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H16" s="9">
         <v>48.86</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="9">
         <v>10</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="9">
         <v>2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="9">
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="9">
         <f t="shared" si="0"/>
         <v>486.6</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>42037</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G17" s="3" t="str">
-        <f>IF(F17="","",_xlfn.IFNA(VLOOKUP($F17,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H17" s="9">
         <v>90.13</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="9">
         <v>30</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="9">
         <v>0</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="9">
         <f t="shared" si="0"/>
         <v>2702.8999999999996</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="10">
         <v>42071</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f>IF(F18="","",_xlfn.IFNA(VLOOKUP($F18,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H18" s="9">
         <v>23.45</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="9">
         <v>20</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="9">
         <v>0</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="9">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="10">
         <v>42343</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <f>IF(F19="","",_xlfn.IFNA(VLOOKUP($F19,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H19" s="9">
         <v>68.83</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>21</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <v>2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="9">
         <v>3</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="9">
         <f t="shared" si="0"/>
         <v>1443.43</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>42406</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f>IF(F20="","",_xlfn.IFNA(VLOOKUP($F20,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H20" s="9">
         <v>48.49</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="9">
         <v>4</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="9">
         <f t="shared" si="0"/>
         <v>92.98</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="10">
         <v>42620</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f>IF(F21="","",_xlfn.IFNA(VLOOKUP($F21,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H21" s="5">
-        <v>807.99</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="G21" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H21" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="9">
         <v>2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="9">
         <f t="shared" si="0"/>
-        <v>1615.98</v>
-      </c>
-      <c r="M21" s="3" t="s">
+        <v>80.8</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="10">
         <v>42745</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3" t="str">
-        <f>IF(F22="","",_xlfn.IFNA(VLOOKUP($F22,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H22" s="5">
-        <v>795.9</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="G22" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H22" s="9">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I22" s="9">
         <v>2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="9">
         <v>0</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="9">
         <f t="shared" si="0"/>
-        <v>1591.8</v>
-      </c>
-      <c r="M22" s="3" t="s">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="10">
         <v>42865</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="str">
-        <f>IF(F23="","",_xlfn.IFNA(VLOOKUP($F23,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H23" s="9">
         <v>38.32</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="9">
         <v>10</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="9">
         <v>0</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="9">
         <f t="shared" si="0"/>
         <v>383.2</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="10">
         <v>43077</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="str">
-        <f>IF(F24="","",_xlfn.IFNA(VLOOKUP($F24,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H24" s="9">
         <v>85.22</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="9">
         <v>10</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="9">
         <v>4</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="9">
         <v>0</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="9">
         <f t="shared" si="0"/>
         <v>848.2</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="10">
         <v>43286</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G25" s="3" t="str">
-        <f>IF(F25="","",_xlfn.IFNA(VLOOKUP($F25,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H25" s="9">
         <v>195.99</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="9">
         <v>5</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="9">
         <v>2</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="9">
         <v>5</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="9">
         <f t="shared" si="0"/>
         <v>977.95</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="10">
         <v>43346</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G26" s="3" t="str">
-        <f>IF(F26="","",_xlfn.IFNA(VLOOKUP($F26,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H26" s="9">
         <v>79.599999999999994</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="9">
         <v>2</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="9">
         <v>4</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="9">
         <f t="shared" si="0"/>
         <v>236.79999999999998</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="10">
         <v>43589</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G27" s="3" t="str">
-        <f>IF(F27="","",_xlfn.IFNA(VLOOKUP($F27,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H27" s="9">
         <v>188.24</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="9">
         <v>5</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="9">
         <v>1</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="9">
         <v>2</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="9">
         <f t="shared" si="0"/>
         <v>940.2</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="10">
         <v>43717</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G28" s="3" t="str">
-        <f>IF(F28="","",_xlfn.IFNA(VLOOKUP($F28,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H28" s="9">
         <v>43.85</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="9">
         <v>6</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="9">
         <v>7</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="9">
         <f t="shared" si="0"/>
         <v>125.55000000000001</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="10">
         <v>43809</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="str">
-        <f>IF(F29="","",_xlfn.IFNA(VLOOKUP($F29,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H29" s="9">
         <v>104.94</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="9">
         <v>8</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="9">
         <v>4</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="9">
         <f t="shared" si="0"/>
         <v>838.52</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="10">
         <v>43864</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="3" t="str">
-        <f>IF(F30="","",_xlfn.IFNA(VLOOKUP($F30,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H30" s="9">
         <v>106.41</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="9">
         <v>10</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="9">
         <v>10</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="9">
         <v>2</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="9">
         <f t="shared" si="0"/>
         <v>1054.0999999999999</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="10">
         <v>43898</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="3" t="str">
-        <f>IF(F31="","",_xlfn.IFNA(VLOOKUP($F31,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1215.79</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="G31" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H31" s="9">
+        <v>60.79</v>
+      </c>
+      <c r="I31" s="9">
         <v>3</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="9">
         <v>10</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="9">
         <v>2</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="9">
         <f t="shared" si="0"/>
-        <v>3637.37</v>
-      </c>
-      <c r="M31" s="3" t="s">
+        <v>172.37</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="10">
         <v>43991</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3" t="str">
-        <f>IF(F32="","",_xlfn.IFNA(VLOOKUP($F32,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H32" s="5">
-        <v>2600.86</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H32" s="9">
+        <v>130.04</v>
+      </c>
+      <c r="I32" s="9">
         <v>2</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="9">
         <v>200</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="9">
         <v>20</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="9">
         <f t="shared" si="0"/>
-        <v>5001.72</v>
-      </c>
-      <c r="M32" s="3" t="s">
+        <v>60.079999999999984</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="10">
         <v>44177</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3" t="str">
-        <f>IF(F33="","",_xlfn.IFNA(VLOOKUP($F33,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H33" s="9">
         <v>121.78</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="9">
         <v>4</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="9">
         <v>10</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="9">
         <v>0</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="9">
         <f t="shared" si="0"/>
         <v>477.12</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="10">
         <v>44203</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="3" t="str">
-        <f>IF(F34="","",_xlfn.IFNA(VLOOKUP($F34,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H34" s="9">
         <v>144.80000000000001</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="9">
         <v>20</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="9">
         <v>10</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="9">
         <v>6</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="9">
         <f t="shared" si="0"/>
         <v>2886</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="10">
         <v>44322</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G35" s="3" t="str">
-        <f>IF(F35="","",_xlfn.IFNA(VLOOKUP($F35,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H35" s="9">
         <v>644.34</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="9">
         <v>30</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="9">
         <v>10</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="9">
         <v>3</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="9">
         <f t="shared" si="0"/>
         <v>19320.2</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="10">
         <v>44558</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G36" s="3" t="str">
-        <f>IF(F36="","",_xlfn.IFNA(VLOOKUP($F36,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Europe</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="G36" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H36" s="9">
         <v>166.42</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="9">
         <v>13</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="9">
         <v>20</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="9">
         <v>3</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="9">
         <f t="shared" si="0"/>
         <v>2143.46</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="10">
         <v>44594</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G37" s="3" t="str">
-        <f>IF(F37="","",_xlfn.IFNA(VLOOKUP($F37,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H37" s="5">
+      <c r="G37" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H37" s="9">
         <v>122.88</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="9">
         <v>30</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="9">
         <v>0</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="9">
         <v>1</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="9">
         <f t="shared" si="0"/>
         <v>3686.3999999999996</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="10">
         <v>44624</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G38" s="3" t="str">
-        <f>IF(F38="","",_xlfn.IFNA(VLOOKUP($F38,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>Asia</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="G38" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H38" s="9">
         <v>105.06</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="9">
         <v>30</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="9">
         <v>0</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="9">
         <v>2</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="9">
         <f t="shared" si="0"/>
         <v>3151.8</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="10">
         <v>44663</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="3" t="str">
-        <f>IF(F39="","",_xlfn.IFNA(VLOOKUP($F39,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="G39" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H39" s="9">
         <v>137.27000000000001</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="9">
         <v>10</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="9">
         <v>30</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="9">
         <v>1</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="9">
         <f t="shared" si="0"/>
         <v>1342.7</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="10">
         <v>44683</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="3" t="str">
-        <f>IF(F40="","",_xlfn.IFNA(VLOOKUP($F40,Categorisation!$H:$I,2,FALSE),"Unknown"))</f>
-        <v>North America</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="G40" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H40" s="9">
         <v>115.76</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="9">
         <v>11</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="9">
         <v>40</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="9">
         <v>0</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="9">
         <f t="shared" si="0"/>
         <v>1233.3600000000001</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H43" s="6"/>
+      <c r="H43" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M41:M1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
       <formula1>"Buy,Sell,Deposit,Withdrawal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4083,31 +4051,31 @@
           <x14:formula1>
             <xm:f>Categorisation!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C41:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEF68219-5D0D-B745-BDFA-47099813E79C}">
           <x14:formula1>
             <xm:f>Categorisation!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D41:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97F90721-221C-DE45-8F8B-D1A75F34D523}">
           <x14:formula1>
             <xm:f>Categorisation!$C$2:$C$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>E41:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AC691FA-6126-5D4F-8FA5-46513B4FA87B}">
           <x14:formula1>
             <xm:f>Categorisation!$F$2:$F$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1048576</xm:sqref>
+          <xm:sqref>N41:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67BFEF95-9976-7F4E-955A-BAF492FDD04A}">
           <x14:formula1>
             <xm:f>Categorisation!$D$2:$D$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1 F41:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4138,29 +4106,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4218,7 +4186,7 @@
       <c r="I3" t="s">
         <v>574</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>572</v>
       </c>
     </row>
@@ -4619,7 +4587,7 @@
       <c r="H22" t="s">
         <v>301</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -4755,7 +4723,7 @@
       <c r="H30" t="s">
         <v>309</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>577</v>
       </c>
     </row>

--- a/portfolio/holdings/Public_Equity_Orderbook.xlsx
+++ b/portfolio/holdings/Public_Equity_Orderbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Test/portfolio/holdings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bennettsimmank/Projects/OpenBBTerminal/portfolio/holdings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A78AF-E94A-3740-A727-0522EDD2CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F0F7E-D81D-3F44-97E2-F8C59C05EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="589">
   <si>
     <t>Country</t>
   </si>
@@ -69,45 +69,21 @@
     <t>Communication Services</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>APTV</t>
-  </si>
-  <si>
-    <t>NKE</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
     <t>Consumer Cyclical</t>
   </si>
   <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>DGX</t>
-  </si>
-  <si>
-    <t>YUM</t>
-  </si>
-  <si>
     <t>Restaurants</t>
   </si>
   <si>
@@ -1792,6 +1768,54 @@
   </si>
   <si>
     <t>Ticker</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>NNND.SG</t>
+  </si>
+  <si>
+    <t>HO2.F</t>
+  </si>
+  <si>
+    <t>6Z1.DE</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>KYG017191142.SG</t>
+  </si>
+  <si>
+    <t>FRE.DE</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>ASME</t>
+  </si>
+  <si>
+    <t>H11.SG</t>
+  </si>
+  <si>
+    <t>H6D0.F</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>PZX.SG</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>GS7.DE</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1826,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1816,12 +1840,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1881,25 +1899,24 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1915,7 +1932,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2211,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6D6F62-AF81-9E4D-96B0-03BD76BF955E}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,1822 +2240,884 @@
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="7" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44530</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>125.82</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44293</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>58.88</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44545</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>94.87</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44553</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>150.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44553</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>588.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44537</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>14.53</v>
+      </c>
+      <c r="H7" s="8">
+        <v>30</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44578</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <v>37.67</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>44553</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44596</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>218</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>44670</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>568.79999999999995</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>44596</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
+        <v>30.63</v>
+      </c>
+      <c r="H12" s="8">
+        <v>9</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>44760</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>3.62</v>
+      </c>
+      <c r="H13" s="8">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>44687</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>60.12</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>44473</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>5.81</v>
+      </c>
+      <c r="H15" s="8">
         <v>24</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>44750</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>115.14</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>44679</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>525.20000000000005</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>44404</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>16.68</v>
+      </c>
+      <c r="H18" s="8">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>44239</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>111.2</v>
+      </c>
+      <c r="H19" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>40301</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H2" s="9">
-        <v>13.27</v>
-      </c>
-      <c r="I2" s="9">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9">
-        <v>5</v>
-      </c>
-      <c r="K2" s="9">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9">
-        <f>H2*I2-J2</f>
-        <v>21.54</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>40365</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="I3" s="9">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9">
-        <v>3</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9">
-        <f t="shared" ref="L3:L40" si="0">H3*I3-J3</f>
-        <v>24.5</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>40761</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H4" s="9">
-        <v>12.61</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>36.83</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>40889</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H5" s="9">
-        <v>18.02</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>2</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="0"/>
-        <v>90.1</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>40942</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" s="9">
-        <v>59.17</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>414.19</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>41033</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H7" s="9">
-        <v>27.95</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="0"/>
-        <v>83.85</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>41125</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H8" s="9">
-        <v>14.24</v>
-      </c>
-      <c r="I8" s="9">
-        <v>50</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="0"/>
-        <v>712</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>41194</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H9" s="9">
-        <v>63.39</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="9">
-        <v>10</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="0"/>
-        <v>370.34000000000003</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>41308</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H10" s="9">
-        <v>45.98</v>
-      </c>
-      <c r="I10" s="9">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9">
-        <v>10</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="0"/>
-        <v>173.92</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>41337</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H11" s="9">
-        <v>20.54</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>100</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="0"/>
-        <v>-79.460000000000008</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>41494</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H12" s="9">
-        <v>14.79</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2</v>
-      </c>
-      <c r="K12" s="9">
-        <v>3</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="0"/>
-        <v>12.79</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>41556</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H13" s="9">
-        <v>17.38</v>
-      </c>
-      <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>5</v>
-      </c>
-      <c r="K13" s="9">
-        <v>5</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="0"/>
-        <v>81.899999999999991</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>41673</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H14" s="9">
-        <v>49.53</v>
-      </c>
-      <c r="I14" s="9">
-        <v>5</v>
-      </c>
-      <c r="J14" s="9">
-        <v>4</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="0"/>
-        <v>243.65</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>41675</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H15" s="9">
-        <v>85.16</v>
-      </c>
-      <c r="I15" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="0"/>
-        <v>252.48</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>41981</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H16" s="9">
-        <v>48.86</v>
-      </c>
-      <c r="I16" s="9">
-        <v>10</v>
-      </c>
-      <c r="J16" s="9">
-        <v>2</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="0"/>
-        <v>486.6</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>42037</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H17" s="9">
-        <v>90.13</v>
-      </c>
-      <c r="I17" s="9">
-        <v>30</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="0"/>
-        <v>2702.8999999999996</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>42071</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H18" s="9">
-        <v>23.45</v>
-      </c>
-      <c r="I18" s="9">
-        <v>20</v>
-      </c>
-      <c r="J18" s="9">
-        <v>6</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>42343</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H19" s="9">
-        <v>68.83</v>
-      </c>
-      <c r="I19" s="9">
-        <v>21</v>
-      </c>
-      <c r="J19" s="9">
-        <v>2</v>
-      </c>
-      <c r="K19" s="9">
-        <v>3</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="0"/>
-        <v>1443.43</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>42406</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H20" s="9">
-        <v>48.49</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
-      <c r="J20" s="9">
-        <v>4</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="0"/>
-        <v>92.98</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>42620</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H21" s="9">
-        <v>40.4</v>
-      </c>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" si="0"/>
-        <v>80.8</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>42745</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H22" s="9">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>79.599999999999994</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>42865</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H23" s="9">
-        <v>38.32</v>
-      </c>
-      <c r="I23" s="9">
-        <v>10</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="0"/>
-        <v>383.2</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>43077</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H24" s="9">
-        <v>85.22</v>
-      </c>
-      <c r="I24" s="9">
-        <v>10</v>
-      </c>
-      <c r="J24" s="9">
-        <v>4</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="0"/>
-        <v>848.2</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>43286</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H25" s="9">
-        <v>195.99</v>
-      </c>
-      <c r="I25" s="9">
-        <v>5</v>
-      </c>
-      <c r="J25" s="9">
-        <v>2</v>
-      </c>
-      <c r="K25" s="9">
-        <v>5</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="0"/>
-        <v>977.95</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>43346</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H26" s="9">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="I26" s="9">
-        <v>3</v>
-      </c>
-      <c r="J26" s="9">
-        <v>2</v>
-      </c>
-      <c r="K26" s="9">
-        <v>4</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="0"/>
-        <v>236.79999999999998</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>43589</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H27" s="9">
-        <v>188.24</v>
-      </c>
-      <c r="I27" s="9">
-        <v>5</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>2</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="0"/>
-        <v>940.2</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>43717</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H28" s="9">
-        <v>43.85</v>
-      </c>
-      <c r="I28" s="9">
-        <v>3</v>
-      </c>
-      <c r="J28" s="9">
-        <v>6</v>
-      </c>
-      <c r="K28" s="9">
-        <v>7</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="0"/>
-        <v>125.55000000000001</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>43809</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H29" s="9">
-        <v>104.94</v>
-      </c>
-      <c r="I29" s="9">
-        <v>8</v>
-      </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-      <c r="K29" s="9">
-        <v>4</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" si="0"/>
-        <v>838.52</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>43864</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H30" s="9">
-        <v>106.41</v>
-      </c>
-      <c r="I30" s="9">
-        <v>10</v>
-      </c>
-      <c r="J30" s="9">
-        <v>10</v>
-      </c>
-      <c r="K30" s="9">
-        <v>2</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="0"/>
-        <v>1054.0999999999999</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>43898</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H31" s="9">
-        <v>60.79</v>
-      </c>
-      <c r="I31" s="9">
-        <v>3</v>
-      </c>
-      <c r="J31" s="9">
-        <v>10</v>
-      </c>
-      <c r="K31" s="9">
-        <v>2</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="0"/>
-        <v>172.37</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>43991</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H32" s="9">
-        <v>130.04</v>
-      </c>
-      <c r="I32" s="9">
-        <v>2</v>
-      </c>
-      <c r="J32" s="9">
-        <v>200</v>
-      </c>
-      <c r="K32" s="9">
-        <v>20</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>60.079999999999984</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>44177</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H33" s="9">
-        <v>121.78</v>
-      </c>
-      <c r="I33" s="9">
-        <v>4</v>
-      </c>
-      <c r="J33" s="9">
-        <v>10</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>477.12</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>44203</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H34" s="9">
-        <v>144.80000000000001</v>
-      </c>
-      <c r="I34" s="9">
-        <v>20</v>
-      </c>
-      <c r="J34" s="9">
-        <v>10</v>
-      </c>
-      <c r="K34" s="9">
-        <v>6</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="0"/>
-        <v>2886</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>44322</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H35" s="9">
-        <v>644.34</v>
-      </c>
-      <c r="I35" s="9">
-        <v>30</v>
-      </c>
-      <c r="J35" s="9">
-        <v>10</v>
-      </c>
-      <c r="K35" s="9">
-        <v>3</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>19320.2</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>44558</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H36" s="9">
-        <v>166.42</v>
-      </c>
-      <c r="I36" s="9">
-        <v>13</v>
-      </c>
-      <c r="J36" s="9">
-        <v>20</v>
-      </c>
-      <c r="K36" s="9">
-        <v>3</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>2143.46</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>44594</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H37" s="9">
-        <v>122.88</v>
-      </c>
-      <c r="I37" s="9">
-        <v>30</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>1</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>3686.3999999999996</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>44624</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="H38" s="9">
-        <v>105.06</v>
-      </c>
-      <c r="I38" s="9">
-        <v>30</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>2</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="0"/>
-        <v>3151.8</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>44663</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H39" s="9">
-        <v>137.27000000000001</v>
-      </c>
-      <c r="I39" s="9">
-        <v>10</v>
-      </c>
-      <c r="J39" s="9">
-        <v>30</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1</v>
-      </c>
-      <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>1342.7</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>44683</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H40" s="9">
-        <v>115.76</v>
-      </c>
-      <c r="I40" s="9">
-        <v>11</v>
-      </c>
-      <c r="J40" s="9">
-        <v>40</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" si="0"/>
-        <v>1233.3600000000001</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H43" s="4"/>
+      <c r="M19" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M41:M1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:L1048576" xr:uid="{9BC7AA78-C681-1647-B9C3-1745A4CE9A34}">
       <formula1>"Buy,Sell,Deposit,Withdrawal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4051,31 +3130,31 @@
           <x14:formula1>
             <xm:f>Categorisation!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C41:C1048576</xm:sqref>
+          <xm:sqref>C40:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEF68219-5D0D-B745-BDFA-47099813E79C}">
           <x14:formula1>
             <xm:f>Categorisation!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>D41:D1048576</xm:sqref>
+          <xm:sqref>D40:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97F90721-221C-DE45-8F8B-D1A75F34D523}">
           <x14:formula1>
             <xm:f>Categorisation!$C$2:$C$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>E41:E1048576</xm:sqref>
+          <xm:sqref>E40:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AC691FA-6126-5D4F-8FA5-46513B4FA87B}">
           <x14:formula1>
             <xm:f>Categorisation!$F$2:$F$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>N41:N1048576</xm:sqref>
+          <xm:sqref>M40:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67BFEF95-9976-7F4E-955A-BAF492FDD04A}">
           <x14:formula1>
             <xm:f>Categorisation!$D$2:$D$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F1 F41:F1048576</xm:sqref>
+          <xm:sqref>F1 F40:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4106,2366 +3185,2366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>573</v>
+      <c r="I1" s="4" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K2" t="s">
         <v>563</v>
-      </c>
-      <c r="B2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" t="s">
-        <v>579</v>
-      </c>
-      <c r="K2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I3" t="s">
-        <v>574</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F6" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I8" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I9" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I10" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" t="s">
         <v>567</v>
-      </c>
-      <c r="B11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" t="s">
-        <v>399</v>
-      </c>
-      <c r="H11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I11" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I13" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I14" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I15" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I17" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I18" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I20" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I21" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>577</v>
+        <v>293</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I23" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H24" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I24" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F25" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I25" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F26" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H26" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I26" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H27" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I27" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H28" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I28" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H29" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>577</v>
+        <v>301</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I31" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I32" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I33" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F35" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H35" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I35" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F36" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H36" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="I36" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I37" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H38" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I38" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H39" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I39" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H40" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F41" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I41" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F42" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I42" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F43" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F44" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H44" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I44" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F45" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H45" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I46" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F47" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I47" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H49" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I49" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H50" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I50" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I51" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H52" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I52" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H53" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I53" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F54" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H55" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I55" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H56" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="I56" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H57" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I57" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I58" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H59" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I59" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F60" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H60" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I60" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I61" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F62" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H62" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I62" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F63" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I63" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H64" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I64" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H65" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I65" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I66" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H67" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I67" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I68" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D69" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F69" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H69" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I69" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H70" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I70" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H71" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I71" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H72" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I72" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H73" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I73" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H74" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I74" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F75" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H75" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I75" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H76" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I76" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F77" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H77" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I77" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H78" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I78" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H79" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="I79" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H80" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I80" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H81" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I81" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H82" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I82" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F83" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H83" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I83" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F84" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H84" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I84" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D85" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H85" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I85" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F86" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H86" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I86" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F87" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H87" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I87" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F88" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H88" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I88" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H89" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I89" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F90" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H90" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I90" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H91" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I91" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H92" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I92" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H93" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I93" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F94" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H94" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I94" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F95" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H95" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I95" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F96" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H96" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I96" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F97" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H97" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I97" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F98" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H98" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I98" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F99" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H99" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I99" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F100" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H100" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I100" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F101" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H101" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I101" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F102" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H102" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I102" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D103" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H103" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I103" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F104" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H104" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I104" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F105" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H105" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="I105" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F106" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H106" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I106" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F108" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H108" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="I108" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F109" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H109" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I109" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F110" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H110" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I110" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F111" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F112" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F113" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F114" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F115" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F116" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F117" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F118" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F119" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F120" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F121" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F122" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F123" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F124" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F126" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F127" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F128" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F129" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F130" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F131" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F132" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F133" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F134" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F135" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F136" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F137" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F138" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F139" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F140" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F141" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F142" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F143" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F144" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F145" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F146" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F147" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F148" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F149" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F150" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F151" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F152" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F153" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F154" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F155" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F156" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F157" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
@@ -6473,450 +5552,450 @@
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F159" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F160" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F161" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F162" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F163" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F164" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F165" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F166" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F167" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F168" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F169" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F170" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F171" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F172" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F173" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F174" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C209" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C210" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C211" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C212" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C213" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C214" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C215" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C216" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C217" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C218" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C219" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C220" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C222" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C223" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C224" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C225" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C226" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C229" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C230" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C231" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C232" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C233" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C234" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C235" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C236" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C237" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C238" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
